--- a/Generator/generator_final.xlsx
+++ b/Generator/generator_final.xlsx
@@ -21,6 +21,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Amir Zeighami</author>
+  </authors>
+  <commentList>
+    <comment ref="AJ1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amir Zeighami:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is what we used for the model</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="648">
   <si>
@@ -1972,7 +2006,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2106,6 +2140,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="40">
@@ -2491,7 +2538,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
@@ -2514,6 +2561,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2836,11 +2886,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK223"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BK239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AU3" sqref="AU3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2850,16 +2900,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
       <c r="AJ1" s="8" t="s">
         <v>617</v>
       </c>
@@ -3064,13 +3114,13 @@
         <v>22.69</v>
       </c>
       <c r="F4">
-        <v>8.02</v>
+        <v>2.0240871729999999</v>
       </c>
       <c r="G4">
-        <v>8.08</v>
+        <v>2.1541366970000002</v>
       </c>
       <c r="H4">
-        <v>8.15</v>
+        <v>2.2191614589999999</v>
       </c>
       <c r="I4">
         <v>8</v>
@@ -3088,7 +3138,7 @@
         <v>3.17</v>
       </c>
       <c r="N4">
-        <v>9.5890410960000008</v>
+        <v>34.917595509999998</v>
       </c>
       <c r="O4">
         <v>1588.3</v>
@@ -3217,13 +3267,13 @@
         <v>50.6</v>
       </c>
       <c r="F5">
-        <v>6.64</v>
+        <v>2.3507357070000001</v>
       </c>
       <c r="G5">
-        <v>6.9</v>
+        <v>2.8726271859999999</v>
       </c>
       <c r="H5">
-        <v>7.16</v>
+        <v>3.1335729259999998</v>
       </c>
       <c r="I5">
         <v>21</v>
@@ -3241,7 +3291,7 @@
         <v>2</v>
       </c>
       <c r="N5">
-        <v>23.24723247</v>
+        <v>63.013965110000001</v>
       </c>
       <c r="O5">
         <v>3542</v>
@@ -3331,7 +3381,7 @@
         <v>1E-3</v>
       </c>
       <c r="AN5">
-        <f t="shared" ref="AN4:AN67" si="15">AK5*47.38/(2204.642)</f>
+        <f t="shared" ref="AN5:AN67" si="15">AK5*47.38/(2204.642)</f>
         <v>5.8346178563231588</v>
       </c>
       <c r="AO5">
@@ -3424,13 +3474,13 @@
         <v>174.56</v>
       </c>
       <c r="F6">
-        <v>11.19</v>
+        <v>10.748881580000001</v>
       </c>
       <c r="G6">
-        <v>11.89</v>
+        <v>12.15879372</v>
       </c>
       <c r="H6">
-        <v>12.6</v>
+        <v>12.863749779999999</v>
       </c>
       <c r="I6">
         <v>70</v>
@@ -3448,7 +3498,7 @@
         <v>2</v>
       </c>
       <c r="N6">
-        <v>36.196319019999997</v>
+        <v>295.32063479999999</v>
       </c>
       <c r="O6">
         <v>12219.2</v>
@@ -3631,13 +3681,13 @@
         <v>175</v>
       </c>
       <c r="F7">
-        <v>11.19</v>
+        <v>10.748881580000001</v>
       </c>
       <c r="G7">
-        <v>11.89</v>
+        <v>12.15879372</v>
       </c>
       <c r="H7">
-        <v>12.6</v>
+        <v>12.863749779999999</v>
       </c>
       <c r="I7">
         <v>70</v>
@@ -3655,7 +3705,7 @@
         <v>2</v>
       </c>
       <c r="N7">
-        <v>36.319018399999997</v>
+        <v>296.06502690000002</v>
       </c>
       <c r="O7">
         <v>12250</v>
@@ -3838,13 +3888,13 @@
         <v>332.18</v>
       </c>
       <c r="F8">
-        <v>11.19</v>
+        <v>10.748881580000001</v>
       </c>
       <c r="G8">
-        <v>11.89</v>
+        <v>12.15879372</v>
       </c>
       <c r="H8">
-        <v>12.6</v>
+        <v>12.863749779999999</v>
       </c>
       <c r="I8">
         <v>133</v>
@@ -3862,7 +3912,7 @@
         <v>2</v>
       </c>
       <c r="N8">
-        <v>68.957055209999993</v>
+        <v>561.98217499999998</v>
       </c>
       <c r="O8">
         <v>23252.6</v>
@@ -4045,13 +4095,13 @@
         <v>335.67</v>
       </c>
       <c r="F9">
-        <v>11.19</v>
+        <v>10.748881580000001</v>
       </c>
       <c r="G9">
-        <v>11.89</v>
+        <v>12.15879372</v>
       </c>
       <c r="H9">
-        <v>12.6</v>
+        <v>12.863749779999999</v>
       </c>
       <c r="I9">
         <v>135</v>
@@ -4069,7 +4119,7 @@
         <v>2</v>
       </c>
       <c r="N9">
-        <v>69.693251529999998</v>
+        <v>567.88655749999998</v>
       </c>
       <c r="O9">
         <v>23496.9</v>
@@ -4252,13 +4302,13 @@
         <v>497.97</v>
       </c>
       <c r="F10">
-        <v>11.19</v>
+        <v>10.748881580000001</v>
       </c>
       <c r="G10">
-        <v>11.89</v>
+        <v>12.15879372</v>
       </c>
       <c r="H10">
-        <v>12.6</v>
+        <v>12.863749779999999</v>
       </c>
       <c r="I10">
         <v>200</v>
@@ -4276,7 +4326,7 @@
         <v>2</v>
       </c>
       <c r="N10">
-        <v>103.3128834</v>
+        <v>842.46572249999997</v>
       </c>
       <c r="O10">
         <v>34857.9</v>
@@ -4459,13 +4509,13 @@
         <v>495</v>
       </c>
       <c r="F11">
-        <v>11.19</v>
+        <v>10.748881580000001</v>
       </c>
       <c r="G11">
-        <v>11.89</v>
+        <v>12.15879372</v>
       </c>
       <c r="H11">
-        <v>12.6</v>
+        <v>12.863749779999999</v>
       </c>
       <c r="I11">
         <v>198</v>
@@ -4483,7 +4533,7 @@
         <v>2</v>
       </c>
       <c r="N11">
-        <v>102.6993865</v>
+        <v>837.44107599999995</v>
       </c>
       <c r="O11">
         <v>34650</v>
@@ -4666,13 +4716,13 @@
         <v>23.8</v>
       </c>
       <c r="F12">
-        <v>11.48</v>
+        <v>13.07720851</v>
       </c>
       <c r="G12">
-        <v>11.55</v>
+        <v>13.20725803</v>
       </c>
       <c r="H12">
-        <v>11.61</v>
+        <v>13.272282799999999</v>
       </c>
       <c r="I12">
         <v>9</v>
@@ -4690,7 +4740,7 @@
         <v>3.17</v>
       </c>
       <c r="N12">
-        <v>10.027397260000001</v>
+        <v>36.62577228</v>
       </c>
       <c r="O12">
         <v>1666</v>
@@ -4864,13 +4914,13 @@
         <v>25.4</v>
       </c>
       <c r="F13">
-        <v>11.48</v>
+        <v>13.07720851</v>
       </c>
       <c r="G13">
-        <v>11.55</v>
+        <v>13.20725803</v>
       </c>
       <c r="H13">
-        <v>11.61</v>
+        <v>13.272282799999999</v>
       </c>
       <c r="I13">
         <v>9</v>
@@ -4888,7 +4938,7 @@
         <v>3.17</v>
       </c>
       <c r="N13">
-        <v>10.68493151</v>
+        <v>39.088009079999999</v>
       </c>
       <c r="O13">
         <v>1778</v>
@@ -5062,13 +5112,13 @@
         <v>49.4</v>
       </c>
       <c r="F14">
-        <v>8.35</v>
+        <v>8.7256723980000004</v>
       </c>
       <c r="G14">
-        <v>8.41</v>
+        <v>8.8557219230000008</v>
       </c>
       <c r="H14">
-        <v>8.48</v>
+        <v>8.9207466849999992</v>
       </c>
       <c r="I14">
         <v>18</v>
@@ -5086,7 +5136,7 @@
         <v>3.17</v>
       </c>
       <c r="N14">
-        <v>20.821917809999999</v>
+        <v>76.021560960000002</v>
       </c>
       <c r="O14">
         <v>3458</v>
@@ -5269,13 +5319,13 @@
         <v>49.4</v>
       </c>
       <c r="F15">
-        <v>8.35</v>
+        <v>8.7256723980000004</v>
       </c>
       <c r="G15">
-        <v>8.41</v>
+        <v>8.8557219230000008</v>
       </c>
       <c r="H15">
-        <v>8.48</v>
+        <v>8.9207466849999992</v>
       </c>
       <c r="I15">
         <v>18</v>
@@ -5293,7 +5343,7 @@
         <v>3.17</v>
       </c>
       <c r="N15">
-        <v>20.821917809999999</v>
+        <v>76.021560960000002</v>
       </c>
       <c r="O15">
         <v>3458</v>
@@ -5476,13 +5526,13 @@
         <v>49.4</v>
       </c>
       <c r="F16">
-        <v>8.35</v>
+        <v>8.7256723980000004</v>
       </c>
       <c r="G16">
-        <v>8.41</v>
+        <v>8.8557219230000008</v>
       </c>
       <c r="H16">
-        <v>8.48</v>
+        <v>8.9207466849999992</v>
       </c>
       <c r="I16">
         <v>18</v>
@@ -5500,7 +5550,7 @@
         <v>3.17</v>
       </c>
       <c r="N16">
-        <v>20.821917809999999</v>
+        <v>76.021560960000002</v>
       </c>
       <c r="O16">
         <v>3458</v>
@@ -5683,13 +5733,13 @@
         <v>49.4</v>
       </c>
       <c r="F17">
-        <v>8.35</v>
+        <v>8.7256723980000004</v>
       </c>
       <c r="G17">
-        <v>8.41</v>
+        <v>8.8557219230000008</v>
       </c>
       <c r="H17">
-        <v>8.48</v>
+        <v>8.9207466849999992</v>
       </c>
       <c r="I17">
         <v>18</v>
@@ -5707,7 +5757,7 @@
         <v>3.17</v>
       </c>
       <c r="N17">
-        <v>20.821917809999999</v>
+        <v>76.021560960000002</v>
       </c>
       <c r="O17">
         <v>3458</v>
@@ -5890,13 +5940,13 @@
         <v>42.81</v>
       </c>
       <c r="F18">
-        <v>11.9</v>
+        <v>7.0589337260000002</v>
       </c>
       <c r="G18">
-        <v>11.97</v>
+        <v>7.1889832509999998</v>
       </c>
       <c r="H18">
-        <v>12.03</v>
+        <v>7.254008013</v>
       </c>
       <c r="I18">
         <v>15</v>
@@ -5914,7 +5964,7 @@
         <v>3.17</v>
       </c>
       <c r="N18">
-        <v>18.082191779999999</v>
+        <v>65.880223169999994</v>
       </c>
       <c r="O18">
         <v>2996.7</v>
@@ -6097,13 +6147,13 @@
         <v>416.6</v>
       </c>
       <c r="F19">
-        <v>6.01</v>
+        <v>3.951724837</v>
       </c>
       <c r="G19">
-        <v>6.27</v>
+        <v>4.4736163160000002</v>
       </c>
       <c r="H19">
-        <v>6.53</v>
+        <v>4.7345620559999997</v>
       </c>
       <c r="I19">
         <v>167</v>
@@ -6121,7 +6171,7 @@
         <v>2</v>
       </c>
       <c r="N19">
-        <v>191.51291509999999</v>
+        <v>518.80667719999997</v>
       </c>
       <c r="O19">
         <v>29162</v>
@@ -6295,13 +6345,13 @@
         <v>47</v>
       </c>
       <c r="F20">
-        <v>11.9</v>
+        <v>8.1971025960000006</v>
       </c>
       <c r="G20">
-        <v>11.97</v>
+        <v>8.3271521199999992</v>
       </c>
       <c r="H20">
-        <v>12.03</v>
+        <v>8.3921768819999993</v>
       </c>
       <c r="I20">
         <v>17</v>
@@ -6319,7 +6369,7 @@
         <v>3.17</v>
       </c>
       <c r="N20">
-        <v>19.7260274</v>
+        <v>72.328205769999997</v>
       </c>
       <c r="O20">
         <v>3290</v>
@@ -6502,13 +6552,13 @@
         <v>135</v>
       </c>
       <c r="F21">
-        <v>6.64</v>
+        <v>5.493519687</v>
       </c>
       <c r="G21">
-        <v>6.9</v>
+        <v>6.0154111669999999</v>
       </c>
       <c r="H21">
-        <v>7.16</v>
+        <v>6.2763569060000002</v>
       </c>
       <c r="I21">
         <v>54</v>
@@ -6526,7 +6576,7 @@
         <v>2</v>
       </c>
       <c r="N21">
-        <v>61.992619929999996</v>
+        <v>168.12026270000001</v>
       </c>
       <c r="O21">
         <v>9450</v>
@@ -6655,13 +6705,13 @@
         <v>47.49</v>
       </c>
       <c r="F22">
-        <v>7.52</v>
+        <v>4.8313072779999997</v>
       </c>
       <c r="G22">
-        <v>7.58</v>
+        <v>4.9613568020000001</v>
       </c>
       <c r="H22">
-        <v>7.65</v>
+        <v>5.0263815640000002</v>
       </c>
       <c r="I22">
         <v>17</v>
@@ -6679,7 +6729,7 @@
         <v>3.17</v>
       </c>
       <c r="N22">
-        <v>20</v>
+        <v>73.082265789999994</v>
       </c>
       <c r="O22">
         <v>3324.3</v>
@@ -6808,13 +6858,13 @@
         <v>47.49</v>
       </c>
       <c r="F23">
-        <v>7.1</v>
+        <v>4.7855409010000001</v>
       </c>
       <c r="G23">
-        <v>7.17</v>
+        <v>4.9155904250000004</v>
       </c>
       <c r="H23">
-        <v>7.23</v>
+        <v>4.9806151869999997</v>
       </c>
       <c r="I23">
         <v>17</v>
@@ -6832,7 +6882,7 @@
         <v>3.17</v>
       </c>
       <c r="N23">
-        <v>20</v>
+        <v>73.082265789999994</v>
       </c>
       <c r="O23">
         <v>3324.3</v>
@@ -6961,13 +7011,13 @@
         <v>46.3</v>
       </c>
       <c r="F24">
-        <v>9.15</v>
+        <v>10.348038450000001</v>
       </c>
       <c r="G24">
-        <v>9.2100000000000009</v>
+        <v>10.478087970000001</v>
       </c>
       <c r="H24">
-        <v>9.2799999999999994</v>
+        <v>10.54311274</v>
       </c>
       <c r="I24">
         <v>17</v>
@@ -6985,7 +7035,7 @@
         <v>3.17</v>
       </c>
       <c r="N24">
-        <v>19.452054789999998</v>
+        <v>71.250977169999999</v>
       </c>
       <c r="O24">
         <v>3241</v>
@@ -7114,13 +7164,13 @@
         <v>51.25</v>
       </c>
       <c r="F25">
-        <v>11.9</v>
+        <v>9.0202211190000003</v>
       </c>
       <c r="G25">
-        <v>11.97</v>
+        <v>9.1502706430000007</v>
       </c>
       <c r="H25">
-        <v>12.03</v>
+        <v>9.2152954050000009</v>
       </c>
       <c r="I25">
         <v>6</v>
@@ -7138,7 +7188,7 @@
         <v>3.17</v>
       </c>
       <c r="N25">
-        <v>21.643835620000001</v>
+        <v>78.868522249999998</v>
       </c>
       <c r="O25">
         <v>3587.5</v>
@@ -7258,13 +7308,13 @@
         <v>65</v>
       </c>
       <c r="F26">
-        <v>11.19</v>
+        <v>9.2447989059999998</v>
       </c>
       <c r="G26">
-        <v>11.89</v>
+        <v>10.65471104</v>
       </c>
       <c r="H26">
-        <v>12.6</v>
+        <v>11.35966711</v>
       </c>
       <c r="I26">
         <v>26</v>
@@ -7282,7 +7332,7 @@
         <v>2</v>
       </c>
       <c r="N26">
-        <v>13.49693252</v>
+        <v>109.96701</v>
       </c>
       <c r="O26">
         <v>4550</v>
@@ -7402,13 +7452,13 @@
         <v>493.63</v>
       </c>
       <c r="F27">
-        <v>9.91</v>
+        <v>5.8417541999999996</v>
       </c>
       <c r="G27">
-        <v>10.17</v>
+        <v>6.3636456800000003</v>
       </c>
       <c r="H27">
-        <v>10.43</v>
+        <v>6.6245914199999998</v>
       </c>
       <c r="I27">
         <v>198</v>
@@ -7426,7 +7476,7 @@
         <v>2</v>
       </c>
       <c r="N27">
-        <v>226.93726939999999</v>
+        <v>614.73485370000003</v>
       </c>
       <c r="O27">
         <v>34554.1</v>
@@ -7555,13 +7605,13 @@
         <v>28</v>
       </c>
       <c r="F28">
-        <v>8.0500000000000007</v>
+        <v>7.9366316179999998</v>
       </c>
       <c r="G28">
-        <v>8.31</v>
+        <v>8.4585230970000005</v>
       </c>
       <c r="H28">
-        <v>8.57</v>
+        <v>8.7194688370000009</v>
       </c>
       <c r="I28">
         <v>12</v>
@@ -7579,7 +7629,7 @@
         <v>2</v>
       </c>
       <c r="N28">
-        <v>12.91512915</v>
+        <v>34.869387809999999</v>
       </c>
       <c r="O28">
         <v>1960</v>
@@ -7699,13 +7749,13 @@
         <v>47</v>
       </c>
       <c r="F29">
-        <v>11.9</v>
+        <v>10.17944982</v>
       </c>
       <c r="G29">
-        <v>11.97</v>
+        <v>10.309499349999999</v>
       </c>
       <c r="H29">
-        <v>12.03</v>
+        <v>10.374524109999999</v>
       </c>
       <c r="I29">
         <v>17</v>
@@ -7723,7 +7773,7 @@
         <v>3.17</v>
       </c>
       <c r="N29">
-        <v>19.7260274</v>
+        <v>72.328205769999997</v>
       </c>
       <c r="O29">
         <v>3290</v>
@@ -7852,13 +7902,13 @@
         <v>41.4</v>
       </c>
       <c r="F30">
-        <v>13.16</v>
+        <v>13.83214398</v>
       </c>
       <c r="G30">
-        <v>13.23</v>
+        <v>13.9621935</v>
       </c>
       <c r="H30">
-        <v>13.29</v>
+        <v>14.02721826</v>
       </c>
       <c r="I30">
         <v>15</v>
@@ -7876,7 +7926,7 @@
         <v>3.17</v>
       </c>
       <c r="N30">
-        <v>17.534246580000001</v>
+        <v>63.710377000000001</v>
       </c>
       <c r="O30">
         <v>2898</v>
@@ -7996,13 +8046,13 @@
         <v>47.49</v>
       </c>
       <c r="F31">
-        <v>7.41</v>
+        <v>5.2214073110000001</v>
       </c>
       <c r="G31">
-        <v>7.48</v>
+        <v>5.3514568349999996</v>
       </c>
       <c r="H31">
-        <v>7.54</v>
+        <v>5.4164815969999998</v>
       </c>
       <c r="I31">
         <v>17</v>
@@ -8020,7 +8070,7 @@
         <v>3.17</v>
       </c>
       <c r="N31">
-        <v>20</v>
+        <v>73.082265789999994</v>
       </c>
       <c r="O31">
         <v>3324.3</v>
@@ -8140,13 +8190,13 @@
         <v>11.5</v>
       </c>
       <c r="F32">
-        <v>8.02</v>
+        <v>3.2258194530000002</v>
       </c>
       <c r="G32">
-        <v>8.08</v>
+        <v>3.3558689780000002</v>
       </c>
       <c r="H32">
-        <v>8.15</v>
+        <v>3.4208937399999999</v>
       </c>
       <c r="I32">
         <v>5</v>
@@ -8164,7 +8214,7 @@
         <v>3.17</v>
       </c>
       <c r="N32">
-        <v>4.9315068489999998</v>
+        <v>17.69732694</v>
       </c>
       <c r="O32">
         <v>805</v>
@@ -8284,13 +8334,13 @@
         <v>12.5</v>
       </c>
       <c r="F33">
-        <v>7.13</v>
+        <v>3.5111009719999999</v>
       </c>
       <c r="G33">
-        <v>7.39</v>
+        <v>4.0329924520000002</v>
       </c>
       <c r="H33">
-        <v>7.65</v>
+        <v>4.2939381919999997</v>
       </c>
       <c r="I33">
         <v>5</v>
@@ -8308,7 +8358,7 @@
         <v>2</v>
       </c>
       <c r="N33">
-        <v>5.904059041</v>
+        <v>15.56669099</v>
       </c>
       <c r="O33">
         <v>875</v>
@@ -8428,13 +8478,13 @@
         <v>19</v>
       </c>
       <c r="F34">
-        <v>8.02</v>
+        <v>3.1844524380000001</v>
       </c>
       <c r="G34">
-        <v>8.08</v>
+        <v>3.314501962</v>
       </c>
       <c r="H34">
-        <v>8.15</v>
+        <v>3.3795267240000002</v>
       </c>
       <c r="I34">
         <v>7</v>
@@ -8452,7 +8502,7 @@
         <v>3.17</v>
       </c>
       <c r="N34">
-        <v>7.9452054790000002</v>
+        <v>29.23906191</v>
       </c>
       <c r="O34">
         <v>1330</v>
@@ -8572,13 +8622,13 @@
         <v>31.6</v>
       </c>
       <c r="F35">
-        <v>6.93</v>
+        <v>4.8142335100000002</v>
       </c>
       <c r="G35">
-        <v>7</v>
+        <v>4.9442830349999998</v>
       </c>
       <c r="H35">
-        <v>7.06</v>
+        <v>5.009307797</v>
       </c>
       <c r="I35">
         <v>12</v>
@@ -8596,7 +8646,7 @@
         <v>3.17</v>
       </c>
       <c r="N35">
-        <v>13.424657529999999</v>
+        <v>48.629176649999998</v>
       </c>
       <c r="O35">
         <v>2212</v>
@@ -8716,13 +8766,13 @@
         <v>48.6</v>
       </c>
       <c r="F36">
-        <v>8.7100000000000009</v>
+        <v>8.395354373</v>
       </c>
       <c r="G36">
-        <v>8.77</v>
+        <v>8.5254038970000003</v>
       </c>
       <c r="H36">
-        <v>8.84</v>
+        <v>8.5904286600000006</v>
       </c>
       <c r="I36">
         <v>18</v>
@@ -8740,7 +8790,7 @@
         <v>3.17</v>
       </c>
       <c r="N36">
-        <v>20.547945210000002</v>
+        <v>74.790442560000002</v>
       </c>
       <c r="O36">
         <v>3402</v>
@@ -8860,13 +8910,13 @@
         <v>204.2</v>
       </c>
       <c r="F37">
-        <v>8.65</v>
+        <v>9.7842360660000001</v>
       </c>
       <c r="G37">
-        <v>8.7100000000000009</v>
+        <v>9.9142855910000005</v>
       </c>
       <c r="H37">
-        <v>8.7799999999999994</v>
+        <v>9.9793103530000007</v>
       </c>
       <c r="I37">
         <v>72</v>
@@ -8884,7 +8934,7 @@
         <v>3.17</v>
       </c>
       <c r="N37">
-        <v>86.082191780000002</v>
+        <v>314.24297059999998</v>
       </c>
       <c r="O37">
         <v>14294</v>
@@ -9013,13 +9063,13 @@
         <v>202.7</v>
       </c>
       <c r="F38">
-        <v>8.65</v>
+        <v>9.7842360660000001</v>
       </c>
       <c r="G38">
-        <v>8.7100000000000009</v>
+        <v>9.9142855910000005</v>
       </c>
       <c r="H38">
-        <v>8.7799999999999994</v>
+        <v>9.9793103530000007</v>
       </c>
       <c r="I38">
         <v>71</v>
@@ -9037,7 +9087,7 @@
         <v>3.17</v>
       </c>
       <c r="N38">
-        <v>85.452054790000005</v>
+        <v>311.93462360000001</v>
       </c>
       <c r="O38">
         <v>14189</v>
@@ -9166,13 +9216,13 @@
         <v>208.96</v>
       </c>
       <c r="F39">
-        <v>8.65</v>
+        <v>9.7842360660000001</v>
       </c>
       <c r="G39">
-        <v>8.7100000000000009</v>
+        <v>9.9142855910000005</v>
       </c>
       <c r="H39">
-        <v>8.7799999999999994</v>
+        <v>9.9793103530000007</v>
       </c>
       <c r="I39">
         <v>74</v>
@@ -9190,7 +9240,7 @@
         <v>3.17</v>
       </c>
       <c r="N39">
-        <v>88.082191780000002</v>
+        <v>321.56812509999997</v>
       </c>
       <c r="O39">
         <v>14627.2</v>
@@ -9319,13 +9369,13 @@
         <v>204.29</v>
       </c>
       <c r="F40">
-        <v>8.65</v>
+        <v>9.7842360660000001</v>
       </c>
       <c r="G40">
-        <v>8.7100000000000009</v>
+        <v>9.9142855910000005</v>
       </c>
       <c r="H40">
-        <v>8.7799999999999994</v>
+        <v>9.9793103530000007</v>
       </c>
       <c r="I40">
         <v>72</v>
@@ -9343,7 +9393,7 @@
         <v>3.17</v>
       </c>
       <c r="N40">
-        <v>86.109589040000003</v>
+        <v>314.38147140000001</v>
       </c>
       <c r="O40">
         <v>14300.3</v>
@@ -9472,13 +9522,13 @@
         <v>52.9</v>
       </c>
       <c r="F41">
-        <v>6.23</v>
+        <v>3.4528658760000002</v>
       </c>
       <c r="G41">
-        <v>6.29</v>
+        <v>3.5829154010000002</v>
       </c>
       <c r="H41">
-        <v>6.36</v>
+        <v>3.6479401629999999</v>
       </c>
       <c r="I41">
         <v>19</v>
@@ -9496,7 +9546,7 @@
         <v>3.17</v>
       </c>
       <c r="N41">
-        <v>22.191780820000002</v>
+        <v>81.407703940000005</v>
       </c>
       <c r="O41">
         <v>3703</v>
@@ -9616,13 +9666,13 @@
         <v>43</v>
       </c>
       <c r="F42">
-        <v>11.9</v>
+        <v>9.023959992</v>
       </c>
       <c r="G42">
-        <v>11.97</v>
+        <v>9.1540095160000003</v>
       </c>
       <c r="H42">
-        <v>12.03</v>
+        <v>9.2190342780000005</v>
       </c>
       <c r="I42">
         <v>16</v>
@@ -9640,7 +9690,7 @@
         <v>3.17</v>
       </c>
       <c r="N42">
-        <v>18.082191779999999</v>
+        <v>66.17261379</v>
       </c>
       <c r="O42">
         <v>3010</v>
@@ -9769,13 +9819,13 @@
         <v>641</v>
       </c>
       <c r="F43">
-        <v>5.31</v>
+        <v>5.2435208480000002</v>
       </c>
       <c r="G43">
-        <v>5.37</v>
+        <v>5.3735703729999997</v>
       </c>
       <c r="H43">
-        <v>5.44</v>
+        <v>5.4385951349999999</v>
       </c>
       <c r="I43">
         <v>225</v>
@@ -9793,7 +9843,7 @@
         <v>3.17</v>
       </c>
       <c r="N43">
-        <v>270.13698629999999</v>
+        <v>986.43361489999995</v>
       </c>
       <c r="O43">
         <v>44870</v>
@@ -9922,13 +9972,13 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>7.49</v>
+        <v>5.4122743399999997</v>
       </c>
       <c r="G44">
-        <v>7.75</v>
+        <v>5.9341658190000004</v>
       </c>
       <c r="H44">
-        <v>8.02</v>
+        <v>6.1951115589999999</v>
       </c>
       <c r="I44">
         <v>12</v>
@@ -9946,7 +9996,7 @@
         <v>2</v>
       </c>
       <c r="N44">
-        <v>12.91512915</v>
+        <v>34.869387809999999</v>
       </c>
       <c r="O44">
         <v>1960</v>
@@ -10066,13 +10116,13 @@
         <v>240</v>
       </c>
       <c r="F45">
-        <v>4.3600000000000003</v>
+        <v>4.3394910759999998</v>
       </c>
       <c r="G45">
-        <v>4.62</v>
+        <v>4.8613825549999996</v>
       </c>
       <c r="H45">
-        <v>4.88</v>
+        <v>5.122328295</v>
       </c>
       <c r="I45">
         <v>96</v>
@@ -10090,7 +10140,7 @@
         <v>2</v>
       </c>
       <c r="N45">
-        <v>110.25830259999999</v>
+        <v>298.88046689999999</v>
       </c>
       <c r="O45">
         <v>16800</v>
@@ -10210,13 +10260,13 @@
         <v>7</v>
       </c>
       <c r="F46">
-        <v>18.41</v>
+        <v>7.0957235719999998</v>
       </c>
       <c r="G46">
-        <v>18.48</v>
+        <v>7.2257730960000002</v>
       </c>
       <c r="H46">
-        <v>18.54</v>
+        <v>7.2907978580000004</v>
       </c>
       <c r="I46">
         <v>3</v>
@@ -10234,7 +10284,7 @@
         <v>3.17</v>
       </c>
       <c r="N46">
-        <v>2.9315068489999998</v>
+        <v>10.77228597</v>
       </c>
       <c r="O46">
         <v>490</v>
@@ -10354,13 +10404,13 @@
         <v>24.75</v>
       </c>
       <c r="F47">
-        <v>30.84</v>
+        <v>12.64910287</v>
       </c>
       <c r="G47">
-        <v>30.91</v>
+        <v>12.77915239</v>
       </c>
       <c r="H47">
-        <v>30.97</v>
+        <v>12.84417715</v>
       </c>
       <c r="I47">
         <v>9</v>
@@ -10378,7 +10428,7 @@
         <v>3.17</v>
       </c>
       <c r="N47">
-        <v>10.410958900000001</v>
+        <v>38.087725380000002</v>
       </c>
       <c r="O47">
         <v>1732.5</v>
@@ -10498,13 +10548,13 @@
         <v>24.75</v>
       </c>
       <c r="F48">
-        <v>30.84</v>
+        <v>12.64910287</v>
       </c>
       <c r="G48">
-        <v>30.91</v>
+        <v>12.77915239</v>
       </c>
       <c r="H48">
-        <v>30.97</v>
+        <v>12.84417715</v>
       </c>
       <c r="I48">
         <v>9</v>
@@ -10522,7 +10572,7 @@
         <v>3.17</v>
       </c>
       <c r="N48">
-        <v>10.410958900000001</v>
+        <v>38.087725380000002</v>
       </c>
       <c r="O48">
         <v>1732.5</v>
@@ -10642,13 +10692,13 @@
         <v>880</v>
       </c>
       <c r="F49">
-        <v>10.220000000000001</v>
+        <v>5.51198883</v>
       </c>
       <c r="G49">
-        <v>10.48</v>
+        <v>6.0338803099999998</v>
       </c>
       <c r="H49">
-        <v>10.74</v>
+        <v>6.2948260490000001</v>
       </c>
       <c r="I49">
         <v>352</v>
@@ -10666,7 +10716,7 @@
         <v>2</v>
       </c>
       <c r="N49">
-        <v>404.3542435</v>
+        <v>1095.895045</v>
       </c>
       <c r="O49">
         <v>61600</v>
@@ -10795,13 +10845,13 @@
         <v>36.799999999999997</v>
       </c>
       <c r="F50">
-        <v>8.08</v>
+        <v>5.2636049610000004</v>
       </c>
       <c r="G50">
-        <v>8.14</v>
+        <v>5.3936544849999999</v>
       </c>
       <c r="H50">
-        <v>8.2100000000000009</v>
+        <v>5.4586792470000001</v>
       </c>
       <c r="I50">
         <v>13</v>
@@ -10819,7 +10869,7 @@
         <v>3.17</v>
       </c>
       <c r="N50">
-        <v>15.61643836</v>
+        <v>56.631446220000001</v>
       </c>
       <c r="O50">
         <v>2576</v>
@@ -10939,13 +10989,13 @@
         <v>56.2</v>
       </c>
       <c r="F51">
-        <v>8.02</v>
+        <v>3.015346928</v>
       </c>
       <c r="G51">
-        <v>8.08</v>
+        <v>3.145396452</v>
       </c>
       <c r="H51">
-        <v>8.15</v>
+        <v>3.2104212140000001</v>
       </c>
       <c r="I51">
         <v>20</v>
@@ -10963,7 +11013,7 @@
         <v>3.17</v>
       </c>
       <c r="N51">
-        <v>23.561643839999999</v>
+        <v>86.486067320000004</v>
       </c>
       <c r="O51">
         <v>3934</v>
@@ -11083,13 +11133,13 @@
         <v>47</v>
       </c>
       <c r="F52">
-        <v>6.64</v>
+        <v>8.7697998150000007</v>
       </c>
       <c r="G52">
-        <v>6.9</v>
+        <v>9.2916912949999997</v>
       </c>
       <c r="H52">
-        <v>7.16</v>
+        <v>9.552637034</v>
       </c>
       <c r="I52">
         <v>19</v>
@@ -11107,7 +11157,7 @@
         <v>2</v>
       </c>
       <c r="N52">
-        <v>21.771217709999998</v>
+        <v>58.530758110000001</v>
       </c>
       <c r="O52">
         <v>3290</v>
@@ -11227,13 +11277,13 @@
         <v>52.23</v>
       </c>
       <c r="F53">
-        <v>8.68</v>
+        <v>8.3751924179999993</v>
       </c>
       <c r="G53">
-        <v>8.75</v>
+        <v>8.5052419429999997</v>
       </c>
       <c r="H53">
-        <v>8.81</v>
+        <v>8.5702667049999999</v>
       </c>
       <c r="I53">
         <v>19</v>
@@ -11251,7 +11301,7 @@
         <v>3.17</v>
       </c>
       <c r="N53">
-        <v>21.917808220000001</v>
+        <v>80.376642279999999</v>
       </c>
       <c r="O53">
         <v>3656.1</v>
@@ -11371,13 +11421,13 @@
         <v>41.4</v>
       </c>
       <c r="F54">
-        <v>13.67</v>
+        <v>19.498990859999999</v>
       </c>
       <c r="G54">
-        <v>13.74</v>
+        <v>19.629040379999999</v>
       </c>
       <c r="H54">
-        <v>13.8</v>
+        <v>19.69406515</v>
       </c>
       <c r="I54">
         <v>15</v>
@@ -11395,7 +11445,7 @@
         <v>3.17</v>
       </c>
       <c r="N54">
-        <v>17.534246580000001</v>
+        <v>63.710377000000001</v>
       </c>
       <c r="O54">
         <v>2898</v>
@@ -11515,13 +11565,13 @@
         <v>147.80000000000001</v>
       </c>
       <c r="F55">
-        <v>7.86</v>
+        <v>6.2943283189999999</v>
       </c>
       <c r="G55">
-        <v>8.1199999999999992</v>
+        <v>6.8162197989999997</v>
       </c>
       <c r="H55">
-        <v>8.3800000000000008</v>
+        <v>7.0771655390000001</v>
       </c>
       <c r="I55">
         <v>60</v>
@@ -11539,7 +11589,7 @@
         <v>2</v>
       </c>
       <c r="N55">
-        <v>67.896678969999996</v>
+        <v>184.06055420000001</v>
       </c>
       <c r="O55">
         <v>10346</v>
@@ -11668,13 +11718,13 @@
         <v>48.1</v>
       </c>
       <c r="F56">
-        <v>8.1300000000000008</v>
+        <v>9.2440919200000007</v>
       </c>
       <c r="G56">
-        <v>8.1999999999999993</v>
+        <v>9.3741414449999994</v>
       </c>
       <c r="H56">
-        <v>8.26</v>
+        <v>9.4391662069999995</v>
       </c>
       <c r="I56">
         <v>16</v>
@@ -11692,7 +11742,7 @@
         <v>3.17</v>
       </c>
       <c r="N56">
-        <v>20.2739726</v>
+        <v>74.020993559999994</v>
       </c>
       <c r="O56">
         <v>3367</v>
@@ -11821,13 +11871,13 @@
         <v>45.42</v>
       </c>
       <c r="F57">
-        <v>11.9</v>
+        <v>9.3790038629999994</v>
       </c>
       <c r="G57">
-        <v>11.97</v>
+        <v>9.5090533879999999</v>
       </c>
       <c r="H57">
-        <v>12.03</v>
+        <v>9.5740781500000001</v>
       </c>
       <c r="I57">
         <v>6</v>
@@ -11845,7 +11895,7 @@
         <v>3.17</v>
       </c>
       <c r="N57">
-        <v>19.178082190000001</v>
+        <v>69.89674694</v>
       </c>
       <c r="O57">
         <v>3179.4</v>
@@ -11965,13 +12015,13 @@
         <v>16.36</v>
       </c>
       <c r="F58">
-        <v>17.149999999999999</v>
+        <v>17.08549966</v>
       </c>
       <c r="G58">
-        <v>17.22</v>
+        <v>17.21554918</v>
       </c>
       <c r="H58">
-        <v>17.28</v>
+        <v>17.280573950000001</v>
       </c>
       <c r="I58">
         <v>9</v>
@@ -11989,7 +12039,7 @@
         <v>3.17</v>
       </c>
       <c r="N58">
-        <v>6.8493150680000001</v>
+        <v>25.176371199999998</v>
       </c>
       <c r="O58">
         <v>1145.2</v>
@@ -12109,13 +12159,13 @@
         <v>551.70000000000005</v>
       </c>
       <c r="F59">
-        <v>8.77</v>
+        <v>3.959884309</v>
       </c>
       <c r="G59">
-        <v>9.0299999999999994</v>
+        <v>4.4817757880000002</v>
       </c>
       <c r="H59">
-        <v>9.3000000000000007</v>
+        <v>4.7427215279999997</v>
       </c>
       <c r="I59">
         <v>221</v>
@@ -12133,7 +12183,7 @@
         <v>2</v>
       </c>
       <c r="N59">
-        <v>253.5055351</v>
+        <v>687.05147339999996</v>
       </c>
       <c r="O59">
         <v>38619</v>
@@ -12253,13 +12303,13 @@
         <v>263</v>
       </c>
       <c r="F60">
-        <v>9.2899999999999991</v>
+        <v>6.8815459949999997</v>
       </c>
       <c r="G60">
-        <v>9.5500000000000007</v>
+        <v>7.4034374740000004</v>
       </c>
       <c r="H60">
-        <v>9.81</v>
+        <v>7.6643832139999999</v>
       </c>
       <c r="I60">
         <v>106</v>
@@ -12277,7 +12327,7 @@
         <v>2</v>
       </c>
       <c r="N60">
-        <v>121.03321029999999</v>
+        <v>327.52317840000001</v>
       </c>
       <c r="O60">
         <v>18410</v>
@@ -12406,13 +12456,13 @@
         <v>263.68</v>
       </c>
       <c r="F61">
-        <v>9.2899999999999991</v>
+        <v>6.8815459949999997</v>
       </c>
       <c r="G61">
-        <v>9.5500000000000007</v>
+        <v>7.4034374740000004</v>
       </c>
       <c r="H61">
-        <v>9.81</v>
+        <v>7.6643832139999999</v>
       </c>
       <c r="I61">
         <v>106</v>
@@ -12430,7 +12480,7 @@
         <v>2</v>
       </c>
       <c r="N61">
-        <v>121.03321029999999</v>
+        <v>328.3700063</v>
       </c>
       <c r="O61">
         <v>18457.599999999999</v>
@@ -12559,13 +12609,13 @@
         <v>48.71</v>
       </c>
       <c r="F62">
-        <v>7.63</v>
+        <v>8.5283031969999996</v>
       </c>
       <c r="G62">
-        <v>7.7</v>
+        <v>8.658352721</v>
       </c>
       <c r="H62">
-        <v>7.76</v>
+        <v>8.7233774840000002</v>
       </c>
       <c r="I62">
         <v>38</v>
@@ -12583,7 +12633,7 @@
         <v>3.17</v>
       </c>
       <c r="N62">
-        <v>20.547945210000002</v>
+        <v>74.959721340000002</v>
       </c>
       <c r="O62">
         <v>3409.7</v>
@@ -12712,13 +12762,13 @@
         <v>48.04</v>
       </c>
       <c r="F63">
-        <v>11.9</v>
+        <v>8.8485296429999991</v>
       </c>
       <c r="G63">
-        <v>11.97</v>
+        <v>8.9785791669999995</v>
       </c>
       <c r="H63">
-        <v>12.03</v>
+        <v>9.0436039289999997</v>
       </c>
       <c r="I63">
         <v>13</v>
@@ -12736,7 +12786,7 @@
         <v>3.17</v>
       </c>
       <c r="N63">
-        <v>20.2739726</v>
+        <v>73.928659679999996</v>
       </c>
       <c r="O63">
         <v>3362.8</v>
@@ -12856,13 +12906,13 @@
         <v>49.9</v>
       </c>
       <c r="F64">
-        <v>6.97</v>
+        <v>5.4220206769999999</v>
       </c>
       <c r="G64">
-        <v>7.04</v>
+        <v>5.5520702010000003</v>
       </c>
       <c r="H64">
-        <v>7.1</v>
+        <v>5.6170949630000004</v>
       </c>
       <c r="I64">
         <v>113</v>
@@ -12880,7 +12930,7 @@
         <v>3.17</v>
       </c>
       <c r="N64">
-        <v>21.095890409999999</v>
+        <v>76.791009959999997</v>
       </c>
       <c r="O64">
         <v>3493</v>
@@ -13009,13 +13059,13 @@
         <v>33.6</v>
       </c>
       <c r="F65">
-        <v>8.02</v>
+        <v>3.775944446</v>
       </c>
       <c r="G65">
-        <v>8.08</v>
+        <v>3.9059939699999999</v>
       </c>
       <c r="H65">
-        <v>8.15</v>
+        <v>3.9710187320000001</v>
       </c>
       <c r="I65">
         <v>12</v>
@@ -13033,7 +13083,7 @@
         <v>3.17</v>
       </c>
       <c r="N65">
-        <v>14.24657534</v>
+        <v>51.706972639999996</v>
       </c>
       <c r="O65">
         <v>2352</v>
@@ -13153,13 +13203,13 @@
         <v>46</v>
       </c>
       <c r="F66">
-        <v>11.9</v>
+        <v>10.84404265</v>
       </c>
       <c r="G66">
-        <v>11.97</v>
+        <v>10.97409218</v>
       </c>
       <c r="H66">
-        <v>12.03</v>
+        <v>11.03911694</v>
       </c>
       <c r="I66">
         <v>17</v>
@@ -13177,7 +13227,7 @@
         <v>3.17</v>
       </c>
       <c r="N66">
-        <v>19.452054789999998</v>
+        <v>70.789307769999994</v>
       </c>
       <c r="O66">
         <v>3220</v>
@@ -13306,13 +13356,13 @@
         <v>320</v>
       </c>
       <c r="F67">
-        <v>11.26</v>
+        <v>10.55984336</v>
       </c>
       <c r="G67">
-        <v>11.97</v>
+        <v>11.969755490000001</v>
       </c>
       <c r="H67">
-        <v>12.67</v>
+        <v>12.67471156</v>
       </c>
       <c r="I67">
         <v>128</v>
@@ -13330,7 +13380,7 @@
         <v>2</v>
       </c>
       <c r="N67">
-        <v>66.380368099999998</v>
+        <v>541.37604910000005</v>
       </c>
       <c r="O67">
         <v>22400</v>
@@ -13450,13 +13500,13 @@
         <v>320</v>
       </c>
       <c r="F68">
-        <v>11.26</v>
+        <v>10.55984336</v>
       </c>
       <c r="G68">
-        <v>11.97</v>
+        <v>11.969755490000001</v>
       </c>
       <c r="H68">
-        <v>12.67</v>
+        <v>12.67471156</v>
       </c>
       <c r="I68">
         <v>128</v>
@@ -13474,7 +13524,7 @@
         <v>2</v>
       </c>
       <c r="N68">
-        <v>66.380368099999998</v>
+        <v>541.37604910000005</v>
       </c>
       <c r="O68">
         <v>22400</v>
@@ -13594,13 +13644,13 @@
         <v>6</v>
       </c>
       <c r="F69">
-        <v>5.86</v>
+        <v>5.0731335919999996</v>
       </c>
       <c r="G69">
-        <v>5.93</v>
+        <v>5.2031831159999999</v>
       </c>
       <c r="H69">
-        <v>5.99</v>
+        <v>5.2682078780000001</v>
       </c>
       <c r="I69">
         <v>3</v>
@@ -13618,7 +13668,7 @@
         <v>3.17</v>
       </c>
       <c r="N69">
-        <v>2.4657534249999999</v>
+        <v>9.2333879710000009</v>
       </c>
       <c r="O69">
         <v>420</v>
@@ -13738,13 +13788,13 @@
         <v>562.5</v>
       </c>
       <c r="F70">
-        <v>5.91</v>
+        <v>5.7111557739999999</v>
       </c>
       <c r="G70">
-        <v>6.17</v>
+        <v>6.2330472529999996</v>
       </c>
       <c r="H70">
-        <v>6.43</v>
+        <v>6.493992993</v>
       </c>
       <c r="I70">
         <v>225</v>
@@ -13762,7 +13812,7 @@
         <v>2</v>
       </c>
       <c r="N70">
-        <v>258.48708490000001</v>
+        <v>700.50109440000006</v>
       </c>
       <c r="O70">
         <v>39375</v>
@@ -13891,13 +13941,13 @@
         <v>120</v>
       </c>
       <c r="F71">
-        <v>6.63</v>
+        <v>10.168109680000001</v>
       </c>
       <c r="G71">
-        <v>6.89</v>
+        <v>10.69000116</v>
       </c>
       <c r="H71">
-        <v>7.15</v>
+        <v>10.9509469</v>
       </c>
       <c r="I71">
         <v>48</v>
@@ -13915,7 +13965,7 @@
         <v>2</v>
       </c>
       <c r="N71">
-        <v>55.129151290000003</v>
+        <v>149.44023350000001</v>
       </c>
       <c r="O71">
         <v>8400</v>
@@ -14044,13 +14094,13 @@
         <v>95.4</v>
       </c>
       <c r="F72">
-        <v>11.9</v>
+        <v>9.8414611440000002</v>
       </c>
       <c r="G72">
-        <v>11.96</v>
+        <v>9.9715106680000005</v>
       </c>
       <c r="H72">
-        <v>12.03</v>
+        <v>10.036535430000001</v>
       </c>
       <c r="I72">
         <v>34</v>
@@ -14068,7 +14118,7 @@
         <v>3.17</v>
       </c>
       <c r="N72">
-        <v>40.219178079999999</v>
+        <v>146.81086869999999</v>
       </c>
       <c r="O72">
         <v>6678</v>
@@ -14197,13 +14247,13 @@
         <v>46.2</v>
       </c>
       <c r="F73">
-        <v>11.9</v>
+        <v>9.8414611440000002</v>
       </c>
       <c r="G73">
-        <v>11.96</v>
+        <v>9.9715106680000005</v>
       </c>
       <c r="H73">
-        <v>12.03</v>
+        <v>10.036535430000001</v>
       </c>
       <c r="I73">
         <v>17</v>
@@ -14221,7 +14271,7 @@
         <v>3.17</v>
       </c>
       <c r="N73">
-        <v>19.452054789999998</v>
+        <v>71.097087369999997</v>
       </c>
       <c r="O73">
         <v>3234</v>
@@ -14350,13 +14400,13 @@
         <v>22.07</v>
       </c>
       <c r="F74">
-        <v>8.06</v>
+        <v>5.3378959760000004</v>
       </c>
       <c r="G74">
-        <v>8.1300000000000008</v>
+        <v>5.467945501</v>
       </c>
       <c r="H74">
-        <v>8.19</v>
+        <v>5.5329702630000002</v>
       </c>
       <c r="I74">
         <v>8</v>
@@ -14374,7 +14424,7 @@
         <v>3.17</v>
       </c>
       <c r="N74">
-        <v>9.3150684930000001</v>
+        <v>33.96347875</v>
       </c>
       <c r="O74">
         <v>1544.9</v>
@@ -14503,13 +14553,13 @@
         <v>22.3</v>
       </c>
       <c r="F75">
-        <v>8.06</v>
+        <v>5.3378959760000004</v>
       </c>
       <c r="G75">
-        <v>8.1300000000000008</v>
+        <v>5.467945501</v>
       </c>
       <c r="H75">
-        <v>8.19</v>
+        <v>5.5329702630000002</v>
       </c>
       <c r="I75">
         <v>8</v>
@@ -14527,7 +14577,7 @@
         <v>3.17</v>
       </c>
       <c r="N75">
-        <v>9.3150684930000001</v>
+        <v>34.317425290000003</v>
       </c>
       <c r="O75">
         <v>1561</v>
@@ -14656,13 +14706,13 @@
         <v>44.83</v>
       </c>
       <c r="F76">
-        <v>8.06</v>
+        <v>5.3378959760000004</v>
       </c>
       <c r="G76">
-        <v>8.1300000000000008</v>
+        <v>5.467945501</v>
       </c>
       <c r="H76">
-        <v>8.19</v>
+        <v>5.5329702630000002</v>
       </c>
       <c r="I76">
         <v>16</v>
@@ -14680,7 +14730,7 @@
         <v>3.17</v>
       </c>
       <c r="N76">
-        <v>18.904109590000001</v>
+        <v>68.988797120000001</v>
       </c>
       <c r="O76">
         <v>3138.1</v>
@@ -14809,13 +14859,13 @@
         <v>42.42</v>
       </c>
       <c r="F77">
-        <v>8.06</v>
+        <v>5.3378959760000004</v>
       </c>
       <c r="G77">
-        <v>8.1300000000000008</v>
+        <v>5.467945501</v>
       </c>
       <c r="H77">
-        <v>8.19</v>
+        <v>5.5329702630000002</v>
       </c>
       <c r="I77">
         <v>15</v>
@@ -14833,7 +14883,7 @@
         <v>3.17</v>
       </c>
       <c r="N77">
-        <v>17.808219179999998</v>
+        <v>65.280052949999998</v>
       </c>
       <c r="O77">
         <v>2969.4</v>
@@ -14962,13 +15012,13 @@
         <v>54</v>
       </c>
       <c r="F78">
-        <v>11.53</v>
+        <v>12.472252080000001</v>
       </c>
       <c r="G78">
-        <v>11.6</v>
+        <v>12.60230161</v>
       </c>
       <c r="H78">
-        <v>11.66</v>
+        <v>12.66732637</v>
       </c>
       <c r="I78">
         <v>19</v>
@@ -14986,7 +15036,7 @@
         <v>3.17</v>
       </c>
       <c r="N78">
-        <v>22.73972603</v>
+        <v>83.100491739999995</v>
       </c>
       <c r="O78">
         <v>3780</v>
@@ -15106,13 +15156,13 @@
         <v>48.2</v>
       </c>
       <c r="F79">
-        <v>9.59</v>
+        <v>8.4867450269999996</v>
       </c>
       <c r="G79">
-        <v>9.65</v>
+        <v>8.6167945509999999</v>
       </c>
       <c r="H79">
-        <v>9.7200000000000006</v>
+        <v>8.6818193130000001</v>
       </c>
       <c r="I79">
         <v>17</v>
@@ -15130,7 +15180,7 @@
         <v>3.17</v>
       </c>
       <c r="N79">
-        <v>20.2739726</v>
+        <v>74.174883359999995</v>
       </c>
       <c r="O79">
         <v>3374</v>
@@ -15250,13 +15300,13 @@
         <v>9.9</v>
       </c>
       <c r="F80">
-        <v>5.72</v>
+        <v>5.6544937849999997</v>
       </c>
       <c r="G80">
-        <v>5.78</v>
+        <v>5.7845433100000001</v>
       </c>
       <c r="H80">
-        <v>5.85</v>
+        <v>5.8495680720000003</v>
       </c>
       <c r="I80">
         <v>4</v>
@@ -15274,7 +15324,7 @@
         <v>3.17</v>
       </c>
       <c r="N80">
-        <v>4.1095890410000004</v>
+        <v>15.23509015</v>
       </c>
       <c r="O80">
         <v>693</v>
@@ -15394,13 +15444,13 @@
         <v>49.5</v>
       </c>
       <c r="F81">
-        <v>6.64</v>
+        <v>5.1562514549999996</v>
       </c>
       <c r="G81">
-        <v>6.9</v>
+        <v>5.6781429340000003</v>
       </c>
       <c r="H81">
-        <v>7.16</v>
+        <v>5.9390886739999997</v>
       </c>
       <c r="I81">
         <v>20</v>
@@ -15418,7 +15468,7 @@
         <v>2</v>
       </c>
       <c r="N81">
-        <v>22.878228780000001</v>
+        <v>61.644096310000002</v>
       </c>
       <c r="O81">
         <v>3465</v>
@@ -15547,13 +15597,13 @@
         <v>63.75</v>
       </c>
       <c r="F82">
-        <v>8.02</v>
+        <v>4.8296029210000002</v>
       </c>
       <c r="G82">
-        <v>8.08</v>
+        <v>4.9596524449999997</v>
       </c>
       <c r="H82">
-        <v>8.15</v>
+        <v>5.0246772069999999</v>
       </c>
       <c r="I82">
         <v>23</v>
@@ -15571,7 +15621,7 @@
         <v>3.17</v>
       </c>
       <c r="N82">
-        <v>26.849315069999999</v>
+        <v>98.104747189999998</v>
       </c>
       <c r="O82">
         <v>4462.5</v>
@@ -15700,13 +15750,13 @@
         <v>32.5</v>
       </c>
       <c r="F83">
-        <v>7.98</v>
+        <v>3.6924169519999999</v>
       </c>
       <c r="G83">
-        <v>8.0500000000000007</v>
+        <v>3.8224664759999998</v>
       </c>
       <c r="H83">
-        <v>8.11</v>
+        <v>3.887491238</v>
       </c>
       <c r="I83">
         <v>12</v>
@@ -15724,7 +15774,7 @@
         <v>3.17</v>
       </c>
       <c r="N83">
-        <v>13.698630140000001</v>
+        <v>50.014184839999999</v>
       </c>
       <c r="O83">
         <v>2275</v>
@@ -15844,13 +15894,13 @@
         <v>109.01</v>
       </c>
       <c r="F84">
-        <v>10.65</v>
+        <v>13.08431133</v>
       </c>
       <c r="G84">
-        <v>10.91</v>
+        <v>13.606202809999999</v>
       </c>
       <c r="H84">
-        <v>11.17</v>
+        <v>13.86714855</v>
       </c>
       <c r="I84">
         <v>44</v>
@@ -15868,7 +15918,7 @@
         <v>2</v>
       </c>
       <c r="N84">
-        <v>50.184501849999997</v>
+        <v>135.75399880000001</v>
       </c>
       <c r="O84">
         <v>7630.7</v>
@@ -15997,13 +16047,13 @@
         <v>49.98</v>
       </c>
       <c r="F85">
-        <v>7.41</v>
+        <v>8.5076296669999998</v>
       </c>
       <c r="G85">
-        <v>7.47</v>
+        <v>8.6376791910000001</v>
       </c>
       <c r="H85">
-        <v>7.54</v>
+        <v>8.7027039540000004</v>
       </c>
       <c r="I85">
         <v>18</v>
@@ -16021,7 +16071,7 @@
         <v>3.17</v>
       </c>
       <c r="N85">
-        <v>21.095890409999999</v>
+        <v>76.914121800000004</v>
       </c>
       <c r="O85">
         <v>3498.6</v>
@@ -16150,13 +16200,13 @@
         <v>49.42</v>
       </c>
       <c r="F86">
-        <v>7.41</v>
+        <v>8.5076296669999998</v>
       </c>
       <c r="G86">
-        <v>7.47</v>
+        <v>8.6376791910000001</v>
       </c>
       <c r="H86">
-        <v>7.54</v>
+        <v>8.7027039540000004</v>
       </c>
       <c r="I86">
         <v>18</v>
@@ -16174,7 +16224,7 @@
         <v>3.17</v>
       </c>
       <c r="N86">
-        <v>20.821917809999999</v>
+        <v>76.052338919999997</v>
       </c>
       <c r="O86">
         <v>3459.4</v>
@@ -16303,13 +16353,13 @@
         <v>830</v>
       </c>
       <c r="F87">
-        <v>7.29</v>
+        <v>5.836556925</v>
       </c>
       <c r="G87">
-        <v>7.56</v>
+        <v>6.3584484049999999</v>
       </c>
       <c r="H87">
-        <v>7.82</v>
+        <v>6.6193941440000001</v>
       </c>
       <c r="I87">
         <v>332</v>
@@ -16327,7 +16377,7 @@
         <v>2</v>
       </c>
       <c r="N87">
-        <v>381.54981550000002</v>
+        <v>1033.6282819999999</v>
       </c>
       <c r="O87">
         <v>58100</v>
@@ -16456,13 +16506,13 @@
         <v>65</v>
       </c>
       <c r="F88">
-        <v>14.76</v>
+        <v>15.70419907</v>
       </c>
       <c r="G88">
-        <v>14.83</v>
+        <v>15.83424859</v>
       </c>
       <c r="H88">
-        <v>14.89</v>
+        <v>15.89927336</v>
       </c>
       <c r="I88">
         <v>23</v>
@@ -16480,7 +16530,7 @@
         <v>3.17</v>
       </c>
       <c r="N88">
-        <v>27.39726027</v>
+        <v>100.0283697</v>
       </c>
       <c r="O88">
         <v>4550</v>
@@ -16609,13 +16659,13 @@
         <v>65</v>
       </c>
       <c r="F89">
-        <v>14.76</v>
+        <v>15.70419907</v>
       </c>
       <c r="G89">
-        <v>14.83</v>
+        <v>15.83424859</v>
       </c>
       <c r="H89">
-        <v>14.89</v>
+        <v>15.89927336</v>
       </c>
       <c r="I89">
         <v>23</v>
@@ -16633,7 +16683,7 @@
         <v>3.17</v>
       </c>
       <c r="N89">
-        <v>27.39726027</v>
+        <v>100.0283697</v>
       </c>
       <c r="O89">
         <v>4550</v>
@@ -16762,13 +16812,13 @@
         <v>65</v>
       </c>
       <c r="F90">
-        <v>14.76</v>
+        <v>15.70419907</v>
       </c>
       <c r="G90">
-        <v>14.83</v>
+        <v>15.83424859</v>
       </c>
       <c r="H90">
-        <v>14.89</v>
+        <v>15.89927336</v>
       </c>
       <c r="I90">
         <v>23</v>
@@ -16786,7 +16836,7 @@
         <v>3.17</v>
       </c>
       <c r="N90">
-        <v>27.39726027</v>
+        <v>100.0283697</v>
       </c>
       <c r="O90">
         <v>4550</v>
@@ -16915,13 +16965,13 @@
         <v>65</v>
       </c>
       <c r="F91">
-        <v>14.76</v>
+        <v>15.70419907</v>
       </c>
       <c r="G91">
-        <v>14.83</v>
+        <v>15.83424859</v>
       </c>
       <c r="H91">
-        <v>14.89</v>
+        <v>15.89927336</v>
       </c>
       <c r="I91">
         <v>23</v>
@@ -16939,7 +16989,7 @@
         <v>3.17</v>
       </c>
       <c r="N91">
-        <v>27.39726027</v>
+        <v>100.0283697</v>
       </c>
       <c r="O91">
         <v>4550</v>
@@ -17068,13 +17118,13 @@
         <v>225.75</v>
       </c>
       <c r="F92">
-        <v>11.19</v>
+        <v>9.2583552709999992</v>
       </c>
       <c r="G92">
-        <v>11.89</v>
+        <v>10.66826741</v>
       </c>
       <c r="H92">
-        <v>12.6</v>
+        <v>11.373223469999999</v>
       </c>
       <c r="I92">
         <v>91</v>
@@ -17092,7 +17142,7 @@
         <v>2</v>
       </c>
       <c r="N92">
-        <v>46.871165640000001</v>
+        <v>381.92388469999997</v>
       </c>
       <c r="O92">
         <v>15802.5</v>
@@ -17212,13 +17262,13 @@
         <v>225.8</v>
       </c>
       <c r="F93">
-        <v>11.19</v>
+        <v>9.2583552709999992</v>
       </c>
       <c r="G93">
-        <v>11.89</v>
+        <v>10.66826741</v>
       </c>
       <c r="H93">
-        <v>12.6</v>
+        <v>11.373223469999999</v>
       </c>
       <c r="I93">
         <v>91</v>
@@ -17236,7 +17286,7 @@
         <v>2</v>
       </c>
       <c r="N93">
-        <v>46.871165640000001</v>
+        <v>382.00847470000002</v>
       </c>
       <c r="O93">
         <v>15806</v>
@@ -17356,13 +17406,13 @@
         <v>48.2</v>
       </c>
       <c r="F94">
-        <v>8.06</v>
+        <v>3.4186427560000001</v>
       </c>
       <c r="G94">
-        <v>8.1300000000000008</v>
+        <v>3.54869228</v>
       </c>
       <c r="H94">
-        <v>8.19</v>
+        <v>3.6137170420000002</v>
       </c>
       <c r="I94">
         <v>17</v>
@@ -17380,7 +17430,7 @@
         <v>3.17</v>
       </c>
       <c r="N94">
-        <v>20.2739726</v>
+        <v>74.174883359999995</v>
       </c>
       <c r="O94">
         <v>3374</v>
@@ -17500,13 +17550,13 @@
         <v>65.08</v>
       </c>
       <c r="F95">
-        <v>7.19</v>
+        <v>6.8102525119999999</v>
       </c>
       <c r="G95">
-        <v>7.26</v>
+        <v>6.9403020360000003</v>
       </c>
       <c r="H95">
-        <v>7.32</v>
+        <v>7.0053267979999996</v>
       </c>
       <c r="I95">
         <v>23</v>
@@ -17524,7 +17574,7 @@
         <v>3.17</v>
       </c>
       <c r="N95">
-        <v>27.39726027</v>
+        <v>100.1514815</v>
       </c>
       <c r="O95">
         <v>4555.6000000000004</v>
@@ -17644,13 +17694,13 @@
         <v>97.62</v>
       </c>
       <c r="F96">
-        <v>7.19</v>
+        <v>6.8102525119999999</v>
       </c>
       <c r="G96">
-        <v>7.26</v>
+        <v>6.9403020360000003</v>
       </c>
       <c r="H96">
-        <v>7.32</v>
+        <v>7.0053267979999996</v>
       </c>
       <c r="I96">
         <v>35</v>
@@ -17668,7 +17718,7 @@
         <v>3.17</v>
       </c>
       <c r="N96">
-        <v>41.095890410000003</v>
+        <v>150.22722229999999</v>
       </c>
       <c r="O96">
         <v>6833.4</v>
@@ -17788,13 +17838,13 @@
         <v>44</v>
       </c>
       <c r="F97">
-        <v>11.9</v>
+        <v>8.7504477810000001</v>
       </c>
       <c r="G97">
-        <v>11.97</v>
+        <v>8.8804973050000005</v>
       </c>
       <c r="H97">
-        <v>12.03</v>
+        <v>8.9455220670000006</v>
       </c>
       <c r="I97">
         <v>16</v>
@@ -17812,7 +17862,7 @@
         <v>3.17</v>
       </c>
       <c r="N97">
-        <v>18.63013699</v>
+        <v>67.711511779999995</v>
       </c>
       <c r="O97">
         <v>3080</v>
@@ -17941,13 +17991,13 @@
         <v>44.53</v>
       </c>
       <c r="F98">
-        <v>11.9</v>
+        <v>8.7504477810000001</v>
       </c>
       <c r="G98">
-        <v>11.97</v>
+        <v>8.8804973050000005</v>
       </c>
       <c r="H98">
-        <v>12.03</v>
+        <v>8.9455220670000006</v>
       </c>
       <c r="I98">
         <v>16</v>
@@ -17965,7 +18015,7 @@
         <v>3.17</v>
       </c>
       <c r="N98">
-        <v>18.904109590000001</v>
+        <v>68.527127719999996</v>
       </c>
       <c r="O98">
         <v>3117.1</v>
@@ -18094,13 +18144,13 @@
         <v>43.69</v>
       </c>
       <c r="F99">
-        <v>11.9</v>
+        <v>8.7504477810000001</v>
       </c>
       <c r="G99">
-        <v>11.97</v>
+        <v>8.8804973050000005</v>
       </c>
       <c r="H99">
-        <v>12.03</v>
+        <v>8.9455220670000006</v>
       </c>
       <c r="I99">
         <v>16</v>
@@ -18118,7 +18168,7 @@
         <v>3.17</v>
       </c>
       <c r="N99">
-        <v>18.356164379999999</v>
+        <v>67.23445341</v>
       </c>
       <c r="O99">
         <v>3058.3</v>
@@ -18247,13 +18297,13 @@
         <v>376.2</v>
       </c>
       <c r="F100">
-        <v>5.62</v>
+        <v>5.6248769139999997</v>
       </c>
       <c r="G100">
-        <v>5.88</v>
+        <v>6.1467683930000003</v>
       </c>
       <c r="H100">
-        <v>6.14</v>
+        <v>6.4077141329999998</v>
       </c>
       <c r="I100">
         <v>151</v>
@@ -18271,7 +18321,7 @@
         <v>2</v>
       </c>
       <c r="N100">
-        <v>172.6937269</v>
+        <v>468.49513189999999</v>
       </c>
       <c r="O100">
         <v>26334</v>
@@ -18391,13 +18441,13 @@
         <v>366.32</v>
       </c>
       <c r="F101">
-        <v>5.62</v>
+        <v>5.6248769139999997</v>
       </c>
       <c r="G101">
-        <v>5.88</v>
+        <v>6.1467683930000003</v>
       </c>
       <c r="H101">
-        <v>6.14</v>
+        <v>6.4077141329999998</v>
       </c>
       <c r="I101">
         <v>147</v>
@@ -18415,7 +18465,7 @@
         <v>2</v>
       </c>
       <c r="N101">
-        <v>168.26568270000001</v>
+        <v>456.19121940000002</v>
       </c>
       <c r="O101">
         <v>25642.400000000001</v>
@@ -18535,13 +18585,13 @@
         <v>196</v>
       </c>
       <c r="F102">
-        <v>8.64</v>
+        <v>8.809373699</v>
       </c>
       <c r="G102">
-        <v>8.6999999999999993</v>
+        <v>8.9394232230000004</v>
       </c>
       <c r="H102">
-        <v>8.77</v>
+        <v>9.0044479850000005</v>
       </c>
       <c r="I102">
         <v>69</v>
@@ -18559,7 +18609,7 @@
         <v>3.17</v>
       </c>
       <c r="N102">
-        <v>82.630136989999997</v>
+        <v>301.62400700000001</v>
       </c>
       <c r="O102">
         <v>13720</v>
@@ -18688,13 +18738,13 @@
         <v>52.4</v>
       </c>
       <c r="F103">
-        <v>8.67</v>
+        <v>8.4398696910000002</v>
       </c>
       <c r="G103">
-        <v>8.73</v>
+        <v>8.5699192150000005</v>
       </c>
       <c r="H103">
-        <v>8.8000000000000007</v>
+        <v>8.6349439770000007</v>
       </c>
       <c r="I103">
         <v>19</v>
@@ -18712,7 +18762,7 @@
         <v>3.17</v>
       </c>
       <c r="N103">
-        <v>22.191780820000002</v>
+        <v>80.638254939999996</v>
       </c>
       <c r="O103">
         <v>3668</v>
@@ -18832,13 +18882,13 @@
         <v>55.2</v>
       </c>
       <c r="F104">
-        <v>9.02</v>
+        <v>3.8292826799999999</v>
       </c>
       <c r="G104">
-        <v>9.09</v>
+        <v>3.9593322039999999</v>
       </c>
       <c r="H104">
-        <v>9.15</v>
+        <v>4.024356966</v>
       </c>
       <c r="I104">
         <v>20</v>
@@ -18856,7 +18906,7 @@
         <v>3.17</v>
       </c>
       <c r="N104">
-        <v>23.287671230000001</v>
+        <v>84.947169329999994</v>
       </c>
       <c r="O104">
         <v>3864</v>
@@ -18976,13 +19026,13 @@
         <v>34.5</v>
       </c>
       <c r="F105">
-        <v>8.02</v>
+        <v>7.8277785470000003</v>
       </c>
       <c r="G105">
-        <v>8.08</v>
+        <v>7.9578280709999998</v>
       </c>
       <c r="H105">
-        <v>8.15</v>
+        <v>8.022852833</v>
       </c>
       <c r="I105">
         <v>13</v>
@@ -19000,7 +19050,7 @@
         <v>3.17</v>
       </c>
       <c r="N105">
-        <v>14.520547949999999</v>
+        <v>53.091980829999997</v>
       </c>
       <c r="O105">
         <v>2415</v>
@@ -19129,13 +19179,13 @@
         <v>44.6</v>
       </c>
       <c r="F106">
-        <v>9.43</v>
+        <v>2.0240871729999999</v>
       </c>
       <c r="G106">
-        <v>9.49</v>
+        <v>2.1541366970000002</v>
       </c>
       <c r="H106">
-        <v>9.56</v>
+        <v>2.2191614589999999</v>
       </c>
       <c r="I106">
         <v>16</v>
@@ -19153,7 +19203,7 @@
         <v>3.17</v>
       </c>
       <c r="N106">
-        <v>18.904109590000001</v>
+        <v>68.634850580000005</v>
       </c>
       <c r="O106">
         <v>3122</v>
@@ -19282,13 +19332,13 @@
         <v>259.8</v>
       </c>
       <c r="F107">
-        <v>6</v>
+        <v>5.8807612689999997</v>
       </c>
       <c r="G107">
-        <v>6.26</v>
+        <v>6.4026527489999996</v>
       </c>
       <c r="H107">
-        <v>6.52</v>
+        <v>6.663598489</v>
       </c>
       <c r="I107">
         <v>104</v>
@@ -19306,7 +19356,7 @@
         <v>2</v>
       </c>
       <c r="N107">
-        <v>119.5571956</v>
+        <v>323.53810549999997</v>
       </c>
       <c r="O107">
         <v>18186</v>
@@ -19435,13 +19485,13 @@
         <v>260.2</v>
       </c>
       <c r="F108">
-        <v>6</v>
+        <v>5.8807612689999997</v>
       </c>
       <c r="G108">
-        <v>6.26</v>
+        <v>6.4026527489999996</v>
       </c>
       <c r="H108">
-        <v>6.52</v>
+        <v>6.663598489</v>
       </c>
       <c r="I108">
         <v>105</v>
@@ -19459,7 +19509,7 @@
         <v>2</v>
       </c>
       <c r="N108">
-        <v>119.5571956</v>
+        <v>324.03623959999999</v>
       </c>
       <c r="O108">
         <v>18214</v>
@@ -19588,13 +19638,13 @@
         <v>256.14999999999998</v>
       </c>
       <c r="F109">
-        <v>6</v>
+        <v>5.8807612689999997</v>
       </c>
       <c r="G109">
-        <v>6.26</v>
+        <v>6.4026527489999996</v>
       </c>
       <c r="H109">
-        <v>6.52</v>
+        <v>6.663598489</v>
       </c>
       <c r="I109">
         <v>103</v>
@@ -19612,7 +19662,7 @@
         <v>2</v>
       </c>
       <c r="N109">
-        <v>117.71217710000001</v>
+        <v>318.9926317</v>
       </c>
       <c r="O109">
         <v>17930.5</v>
@@ -19741,13 +19791,13 @@
         <v>259.54000000000002</v>
       </c>
       <c r="F110">
-        <v>6</v>
+        <v>5.8807612689999997</v>
       </c>
       <c r="G110">
-        <v>6.26</v>
+        <v>6.4026527489999996</v>
       </c>
       <c r="H110">
-        <v>6.52</v>
+        <v>6.663598489</v>
       </c>
       <c r="I110">
         <v>104</v>
@@ -19765,7 +19815,7 @@
         <v>2</v>
       </c>
       <c r="N110">
-        <v>119.18819190000001</v>
+        <v>323.2143183</v>
       </c>
       <c r="O110">
         <v>18167.8</v>
@@ -19894,13 +19944,13 @@
         <v>46.1</v>
       </c>
       <c r="F111">
-        <v>11.9</v>
+        <v>8.3686151950000003</v>
       </c>
       <c r="G111">
-        <v>11.97</v>
+        <v>8.4986647200000007</v>
       </c>
       <c r="H111">
-        <v>12.03</v>
+        <v>8.5636894819999991</v>
       </c>
       <c r="I111">
         <v>22</v>
@@ -19918,7 +19968,7 @@
         <v>3.17</v>
       </c>
       <c r="N111">
-        <v>19.452054789999998</v>
+        <v>70.943197569999995</v>
       </c>
       <c r="O111">
         <v>3227</v>
@@ -20047,13 +20097,13 @@
         <v>47.98</v>
       </c>
       <c r="F112">
-        <v>11.9</v>
+        <v>8.3686151950000003</v>
       </c>
       <c r="G112">
-        <v>11.97</v>
+        <v>8.4986647200000007</v>
       </c>
       <c r="H112">
-        <v>12.03</v>
+        <v>8.5636894819999991</v>
       </c>
       <c r="I112">
         <v>18</v>
@@ -20071,7 +20121,7 @@
         <v>3.17</v>
       </c>
       <c r="N112">
-        <v>20.2739726</v>
+        <v>73.836325810000005</v>
       </c>
       <c r="O112">
         <v>3358.6</v>
@@ -20200,13 +20250,13 @@
         <v>799.47</v>
       </c>
       <c r="F113">
-        <v>9.6199999999999992</v>
+        <v>5.5148063790000004</v>
       </c>
       <c r="G113">
-        <v>9.8800000000000008</v>
+        <v>6.0366978590000002</v>
       </c>
       <c r="H113">
-        <v>10.14</v>
+        <v>6.2976435989999997</v>
       </c>
       <c r="I113">
         <v>320</v>
@@ -20224,7 +20274,7 @@
         <v>2</v>
       </c>
       <c r="N113">
-        <v>367.5276753</v>
+        <v>995.6081954</v>
       </c>
       <c r="O113">
         <v>55962.9</v>
@@ -20353,13 +20403,13 @@
         <v>294</v>
       </c>
       <c r="F114">
-        <v>11.9</v>
+        <v>6.4261425269999997</v>
       </c>
       <c r="G114">
-        <v>11.96</v>
+        <v>6.556192051</v>
       </c>
       <c r="H114">
-        <v>12.03</v>
+        <v>6.6212168130000002</v>
       </c>
       <c r="I114">
         <v>103</v>
@@ -20377,7 +20427,7 @@
         <v>3.17</v>
       </c>
       <c r="N114">
-        <v>123.9452055</v>
+        <v>452.43601059999997</v>
       </c>
       <c r="O114">
         <v>20580</v>
@@ -20506,13 +20556,13 @@
         <v>48</v>
       </c>
       <c r="F115">
-        <v>8.02</v>
+        <v>7.0240871729999999</v>
       </c>
       <c r="G115">
-        <v>8.08</v>
+        <v>7.1541366970000002</v>
       </c>
       <c r="H115">
-        <v>8.15</v>
+        <v>7.2191614590000004</v>
       </c>
       <c r="I115">
         <v>17</v>
@@ -20530,7 +20580,7 @@
         <v>3.17</v>
       </c>
       <c r="N115">
-        <v>20.2739726</v>
+        <v>73.86710377</v>
       </c>
       <c r="O115">
         <v>3360</v>
@@ -20650,13 +20700,13 @@
         <v>48</v>
       </c>
       <c r="F116">
-        <v>9.58</v>
+        <v>10.21470306</v>
       </c>
       <c r="G116">
-        <v>9.65</v>
+        <v>10.34475258</v>
       </c>
       <c r="H116">
-        <v>9.7100000000000009</v>
+        <v>10.40977734</v>
       </c>
       <c r="I116">
         <v>17</v>
@@ -20674,7 +20724,7 @@
         <v>3.17</v>
       </c>
       <c r="N116">
-        <v>20.2739726</v>
+        <v>73.86710377</v>
       </c>
       <c r="O116">
         <v>3360</v>
@@ -20803,13 +20853,13 @@
         <v>48</v>
       </c>
       <c r="F117">
-        <v>9.4600000000000009</v>
+        <v>10.880811449999999</v>
       </c>
       <c r="G117">
-        <v>9.5299999999999994</v>
+        <v>11.01086098</v>
       </c>
       <c r="H117">
-        <v>9.59</v>
+        <v>11.07588574</v>
       </c>
       <c r="I117">
         <v>17</v>
@@ -20827,7 +20877,7 @@
         <v>3.17</v>
       </c>
       <c r="N117">
-        <v>20.219178079999999</v>
+        <v>73.86710377</v>
       </c>
       <c r="O117">
         <v>3360</v>
@@ -20956,13 +21006,13 @@
         <v>48</v>
       </c>
       <c r="F118">
-        <v>9.66</v>
+        <v>10.142910929999999</v>
       </c>
       <c r="G118">
-        <v>9.73</v>
+        <v>10.272960449999999</v>
       </c>
       <c r="H118">
-        <v>9.7899999999999991</v>
+        <v>10.33798522</v>
       </c>
       <c r="I118">
         <v>17</v>
@@ -20980,7 +21030,7 @@
         <v>3.17</v>
       </c>
       <c r="N118">
-        <v>20.219178079999999</v>
+        <v>73.86710377</v>
       </c>
       <c r="O118">
         <v>3360</v>
@@ -21109,13 +21159,13 @@
         <v>561.29</v>
       </c>
       <c r="F119">
-        <v>8.36</v>
+        <v>4.9699489249999997</v>
       </c>
       <c r="G119">
-        <v>8.6199999999999992</v>
+        <v>5.4918404049999996</v>
       </c>
       <c r="H119">
-        <v>8.8800000000000008</v>
+        <v>5.7527861439999999</v>
       </c>
       <c r="I119">
         <v>225</v>
@@ -21133,7 +21183,7 @@
         <v>2</v>
       </c>
       <c r="N119">
-        <v>257.89667900000001</v>
+        <v>698.99423869999998</v>
       </c>
       <c r="O119">
         <v>39290.300000000003</v>
@@ -21262,13 +21312,13 @@
         <v>25.3</v>
       </c>
       <c r="F120">
-        <v>13.94</v>
+        <v>14.12288442</v>
       </c>
       <c r="G120">
-        <v>14.01</v>
+        <v>14.252933949999999</v>
       </c>
       <c r="H120">
-        <v>14.07</v>
+        <v>14.317958709999999</v>
       </c>
       <c r="I120">
         <v>9</v>
@@ -21286,7 +21336,7 @@
         <v>3.17</v>
       </c>
       <c r="N120">
-        <v>10.68493151</v>
+        <v>38.934119279999997</v>
       </c>
       <c r="O120">
         <v>1771</v>
@@ -21406,13 +21456,13 @@
         <v>302.58</v>
       </c>
       <c r="F121">
-        <v>5.6</v>
+        <v>5.4472789830000004</v>
       </c>
       <c r="G121">
-        <v>5.87</v>
+        <v>5.9691704630000002</v>
       </c>
       <c r="H121">
-        <v>6.13</v>
+        <v>6.2301162029999997</v>
       </c>
       <c r="I121">
         <v>122</v>
@@ -21430,7 +21480,7 @@
         <v>2</v>
       </c>
       <c r="N121">
-        <v>139.11439110000001</v>
+        <v>376.81354870000001</v>
       </c>
       <c r="O121">
         <v>21180.6</v>
@@ -21559,13 +21609,13 @@
         <v>96</v>
       </c>
       <c r="F122">
-        <v>7.61</v>
+        <v>8.8681977859999996</v>
       </c>
       <c r="G122">
-        <v>7.87</v>
+        <v>9.3900892650000003</v>
       </c>
       <c r="H122">
-        <v>8.1300000000000008</v>
+        <v>9.6510350050000007</v>
       </c>
       <c r="I122">
         <v>39</v>
@@ -21583,7 +21633,7 @@
         <v>2</v>
       </c>
       <c r="N122">
-        <v>44.280442800000003</v>
+        <v>119.5521868</v>
       </c>
       <c r="O122">
         <v>6720</v>
@@ -21712,13 +21762,13 @@
         <v>593.16</v>
       </c>
       <c r="F123">
-        <v>5.97</v>
+        <v>5.6916098890000004</v>
       </c>
       <c r="G123">
-        <v>6.23</v>
+        <v>6.2135013690000003</v>
       </c>
       <c r="H123">
-        <v>6.49</v>
+        <v>6.4744471089999998</v>
       </c>
       <c r="I123">
         <v>238</v>
@@ -21736,7 +21786,7 @@
         <v>2</v>
       </c>
       <c r="N123">
-        <v>272.54612550000002</v>
+        <v>738.6830741</v>
       </c>
       <c r="O123">
         <v>41521.199999999997</v>
@@ -21865,13 +21915,13 @@
         <v>52.9</v>
       </c>
       <c r="F124">
-        <v>7.15</v>
+        <v>7.0880280320000004</v>
       </c>
       <c r="G124">
-        <v>7.22</v>
+        <v>7.218077557</v>
       </c>
       <c r="H124">
-        <v>7.28</v>
+        <v>7.2831023190000002</v>
       </c>
       <c r="I124">
         <v>19</v>
@@ -21889,7 +21939,7 @@
         <v>3.17</v>
       </c>
       <c r="N124">
-        <v>22.191780820000002</v>
+        <v>81.407703940000005</v>
       </c>
       <c r="O124">
         <v>3703</v>
@@ -22009,13 +22059,13 @@
         <v>50.05</v>
       </c>
       <c r="F125">
-        <v>8.09</v>
+        <v>8.0247844449999999</v>
       </c>
       <c r="G125">
-        <v>8.15</v>
+        <v>8.1548339700000003</v>
       </c>
       <c r="H125">
-        <v>8.2200000000000006</v>
+        <v>8.2198587320000005</v>
       </c>
       <c r="I125">
         <v>18</v>
@@ -22033,7 +22083,7 @@
         <v>3.17</v>
       </c>
       <c r="N125">
-        <v>21.095890409999999</v>
+        <v>77.021844650000006</v>
       </c>
       <c r="O125">
         <v>3503.5</v>
@@ -22153,13 +22203,13 @@
         <v>46</v>
       </c>
       <c r="F126">
-        <v>7.6</v>
+        <v>8.2007782410000001</v>
       </c>
       <c r="G126">
-        <v>7.66</v>
+        <v>8.3308277650000004</v>
       </c>
       <c r="H126">
-        <v>7.73</v>
+        <v>8.3958525270000006</v>
       </c>
       <c r="I126">
         <v>17</v>
@@ -22177,7 +22227,7 @@
         <v>3.17</v>
       </c>
       <c r="N126">
-        <v>19.452054789999998</v>
+        <v>70.789307769999994</v>
       </c>
       <c r="O126">
         <v>3220</v>
@@ -22306,13 +22356,13 @@
         <v>47.49</v>
       </c>
       <c r="F127">
-        <v>7.34</v>
+        <v>4.1890995110000002</v>
       </c>
       <c r="G127">
-        <v>7.41</v>
+        <v>4.3191490349999997</v>
       </c>
       <c r="H127">
-        <v>7.47</v>
+        <v>4.3841737969999999</v>
       </c>
       <c r="I127">
         <v>17</v>
@@ -22330,7 +22380,7 @@
         <v>3.17</v>
       </c>
       <c r="N127">
-        <v>20</v>
+        <v>73.082265789999994</v>
       </c>
       <c r="O127">
         <v>3324.3</v>
@@ -22459,13 +22509,13 @@
         <v>47.2</v>
       </c>
       <c r="F128">
-        <v>11.9</v>
+        <v>8.0562214030000003</v>
       </c>
       <c r="G128">
-        <v>11.97</v>
+        <v>8.1862709270000007</v>
       </c>
       <c r="H128">
-        <v>12.03</v>
+        <v>8.2512956890000009</v>
       </c>
       <c r="I128">
         <v>17</v>
@@ -22483,7 +22533,7 @@
         <v>3.17</v>
       </c>
       <c r="N128">
-        <v>20</v>
+        <v>72.63598537</v>
       </c>
       <c r="O128">
         <v>3304</v>
@@ -22612,13 +22662,13 @@
         <v>215</v>
       </c>
       <c r="F129">
-        <v>8.8699999999999992</v>
+        <v>8.6905254989999996</v>
       </c>
       <c r="G129">
-        <v>9.57</v>
+        <v>10.10043763</v>
       </c>
       <c r="H129">
-        <v>10.28</v>
+        <v>10.8053937</v>
       </c>
       <c r="I129">
         <v>86</v>
@@ -22636,7 +22686,7 @@
         <v>2</v>
       </c>
       <c r="N129">
-        <v>44.662576690000002</v>
+        <v>363.737033</v>
       </c>
       <c r="O129">
         <v>15050</v>
@@ -22756,13 +22806,13 @@
         <v>215.29</v>
       </c>
       <c r="F130">
-        <v>8.8699999999999992</v>
+        <v>8.6905254989999996</v>
       </c>
       <c r="G130">
-        <v>9.57</v>
+        <v>10.10043763</v>
       </c>
       <c r="H130">
-        <v>10.28</v>
+        <v>10.8053937</v>
       </c>
       <c r="I130">
         <v>87</v>
@@ -22780,7 +22830,7 @@
         <v>2</v>
       </c>
       <c r="N130">
-        <v>44.662576690000002</v>
+        <v>364.22765509999999</v>
       </c>
       <c r="O130">
         <v>15070.3</v>
@@ -22900,13 +22950,13 @@
         <v>130</v>
       </c>
       <c r="F131">
-        <v>28.33</v>
+        <v>9.2316875130000007</v>
       </c>
       <c r="G131">
-        <v>28.4</v>
+        <v>9.3617370379999993</v>
       </c>
       <c r="H131">
-        <v>28.46</v>
+        <v>9.4267617999999995</v>
       </c>
       <c r="I131">
         <v>46</v>
@@ -22924,7 +22974,7 @@
         <v>3.17</v>
       </c>
       <c r="N131">
-        <v>54.794520550000001</v>
+        <v>200.0567394</v>
       </c>
       <c r="O131">
         <v>9100</v>
@@ -23044,13 +23094,13 @@
         <v>510</v>
       </c>
       <c r="F132">
-        <v>9.36</v>
+        <v>5.622580997</v>
       </c>
       <c r="G132">
-        <v>9.6199999999999992</v>
+        <v>6.1444724769999999</v>
       </c>
       <c r="H132">
-        <v>9.8800000000000008</v>
+        <v>6.4054182170000002</v>
       </c>
       <c r="I132">
         <v>204</v>
@@ -23068,7 +23118,7 @@
         <v>2</v>
       </c>
       <c r="N132">
-        <v>234.31734320000001</v>
+        <v>635.12099230000001</v>
       </c>
       <c r="O132">
         <v>35700</v>
@@ -23188,13 +23238,13 @@
         <v>754</v>
       </c>
       <c r="F133">
-        <v>9.81</v>
+        <v>4.7547704480000004</v>
       </c>
       <c r="G133">
-        <v>10.51</v>
+        <v>6.1646825830000003</v>
       </c>
       <c r="H133">
-        <v>11.22</v>
+        <v>6.8696386499999997</v>
       </c>
       <c r="I133">
         <v>302</v>
@@ -23212,7 +23262,7 @@
         <v>2</v>
       </c>
       <c r="N133">
-        <v>156.56441720000001</v>
+        <v>1275.6173160000001</v>
       </c>
       <c r="O133">
         <v>52780</v>
@@ -23332,13 +23382,13 @@
         <v>755</v>
       </c>
       <c r="F134">
-        <v>9.81</v>
+        <v>4.7547704480000004</v>
       </c>
       <c r="G134">
-        <v>10.51</v>
+        <v>6.1646825830000003</v>
       </c>
       <c r="H134">
-        <v>11.22</v>
+        <v>6.8696386499999997</v>
       </c>
       <c r="I134">
         <v>302</v>
@@ -23356,7 +23406,7 @@
         <v>2</v>
       </c>
       <c r="N134">
-        <v>156.6871166</v>
+        <v>1277.3091159999999</v>
       </c>
       <c r="O134">
         <v>52850</v>
@@ -23476,13 +23526,13 @@
         <v>494.58</v>
       </c>
       <c r="F135">
-        <v>5.84</v>
+        <v>5.9648723950000004</v>
       </c>
       <c r="G135">
-        <v>6.1</v>
+        <v>6.4867638750000003</v>
       </c>
       <c r="H135">
-        <v>6.36</v>
+        <v>6.7477096139999997</v>
       </c>
       <c r="I135">
         <v>198</v>
@@ -23500,7 +23550,7 @@
         <v>2</v>
       </c>
       <c r="N135">
-        <v>227.3062731</v>
+        <v>615.91792229999999</v>
       </c>
       <c r="O135">
         <v>34620.6</v>
@@ -23620,13 +23670,13 @@
         <v>48</v>
       </c>
       <c r="F136">
-        <v>7.9</v>
+        <v>8.1217312899999996</v>
       </c>
       <c r="G136">
-        <v>7.96</v>
+        <v>8.251780814</v>
       </c>
       <c r="H136">
-        <v>8.0299999999999994</v>
+        <v>8.3168055760000001</v>
       </c>
       <c r="I136">
         <v>17</v>
@@ -23644,7 +23694,7 @@
         <v>3.17</v>
       </c>
       <c r="N136">
-        <v>20.2739726</v>
+        <v>73.86710377</v>
       </c>
       <c r="O136">
         <v>3360</v>
@@ -23773,13 +23823,13 @@
         <v>42.7</v>
       </c>
       <c r="F137">
-        <v>7.64</v>
+        <v>8.1946387600000001</v>
       </c>
       <c r="G137">
-        <v>7.71</v>
+        <v>8.3246882850000006</v>
       </c>
       <c r="H137">
-        <v>7.77</v>
+        <v>8.3897130470000008</v>
       </c>
       <c r="I137">
         <v>212</v>
@@ -23797,7 +23847,7 @@
         <v>3.17</v>
       </c>
       <c r="N137">
-        <v>18.082191779999999</v>
+        <v>65.710944389999995</v>
       </c>
       <c r="O137">
         <v>2989</v>
@@ -23917,13 +23967,13 @@
         <v>55</v>
       </c>
       <c r="F138">
-        <v>13.68</v>
+        <v>15.042778670000001</v>
       </c>
       <c r="G138">
-        <v>13.75</v>
+        <v>15.172828190000001</v>
       </c>
       <c r="H138">
-        <v>13.81</v>
+        <v>15.237852950000001</v>
       </c>
       <c r="I138">
         <v>20</v>
@@ -23941,7 +23991,7 @@
         <v>3.17</v>
       </c>
       <c r="N138">
-        <v>23.178082190000001</v>
+        <v>84.639389730000005</v>
       </c>
       <c r="O138">
         <v>3850</v>
@@ -24061,13 +24111,13 @@
         <v>55</v>
       </c>
       <c r="F139">
-        <v>13.68</v>
+        <v>15.042778670000001</v>
       </c>
       <c r="G139">
-        <v>13.75</v>
+        <v>15.172828190000001</v>
       </c>
       <c r="H139">
-        <v>13.81</v>
+        <v>15.237852950000001</v>
       </c>
       <c r="I139">
         <v>20</v>
@@ -24085,7 +24135,7 @@
         <v>3.17</v>
       </c>
       <c r="N139">
-        <v>23.178082190000001</v>
+        <v>84.639389730000005</v>
       </c>
       <c r="O139">
         <v>3850</v>
@@ -24205,13 +24255,13 @@
         <v>55</v>
       </c>
       <c r="F140">
-        <v>13.68</v>
+        <v>15.042778670000001</v>
       </c>
       <c r="G140">
-        <v>13.75</v>
+        <v>15.172828190000001</v>
       </c>
       <c r="H140">
-        <v>13.81</v>
+        <v>15.237852950000001</v>
       </c>
       <c r="I140">
         <v>20</v>
@@ -24229,7 +24279,7 @@
         <v>3.17</v>
       </c>
       <c r="N140">
-        <v>23.178082190000001</v>
+        <v>84.639389730000005</v>
       </c>
       <c r="O140">
         <v>3850</v>
@@ -24349,13 +24399,13 @@
         <v>96</v>
       </c>
       <c r="F141">
-        <v>11.9</v>
+        <v>9.1691918440000002</v>
       </c>
       <c r="G141">
-        <v>11.97</v>
+        <v>9.2992413680000006</v>
       </c>
       <c r="H141">
-        <v>12.03</v>
+        <v>9.3642661300000007</v>
       </c>
       <c r="I141">
         <v>18</v>
@@ -24373,7 +24423,7 @@
         <v>3.17</v>
       </c>
       <c r="N141">
-        <v>40.547945210000002</v>
+        <v>147.7342075</v>
       </c>
       <c r="O141">
         <v>6720</v>
@@ -24502,13 +24552,13 @@
         <v>40</v>
       </c>
       <c r="F142">
-        <v>7.96</v>
+        <v>3.5176769160000001</v>
       </c>
       <c r="G142">
-        <v>8.02</v>
+        <v>3.64772644</v>
       </c>
       <c r="H142">
-        <v>8.09</v>
+        <v>3.7127512020000002</v>
       </c>
       <c r="I142">
         <v>14</v>
@@ -24526,7 +24576,7 @@
         <v>3.17</v>
       </c>
       <c r="N142">
-        <v>16.98630137</v>
+        <v>61.555919799999998</v>
       </c>
       <c r="O142">
         <v>2800</v>
@@ -24646,13 +24696,13 @@
         <v>78</v>
       </c>
       <c r="F143">
-        <v>7.43</v>
+        <v>3.838563626</v>
       </c>
       <c r="G143">
-        <v>7.5</v>
+        <v>3.9686131499999999</v>
       </c>
       <c r="H143">
-        <v>7.56</v>
+        <v>4.0336379119999997</v>
       </c>
       <c r="I143">
         <v>28</v>
@@ -24670,7 +24720,7 @@
         <v>3.17</v>
       </c>
       <c r="N143">
-        <v>32.876712329999997</v>
+        <v>120.0340436</v>
       </c>
       <c r="O143">
         <v>5460</v>
@@ -24790,13 +24840,13 @@
         <v>78.11</v>
       </c>
       <c r="F144">
-        <v>7.43</v>
+        <v>3.838563626</v>
       </c>
       <c r="G144">
-        <v>7.5</v>
+        <v>3.9686131499999999</v>
       </c>
       <c r="H144">
-        <v>7.56</v>
+        <v>4.0336379119999997</v>
       </c>
       <c r="I144">
         <v>28</v>
@@ -24814,7 +24864,7 @@
         <v>3.17</v>
       </c>
       <c r="N144">
-        <v>32.876712329999997</v>
+        <v>120.2033224</v>
       </c>
       <c r="O144">
         <v>5467.7</v>
@@ -24934,13 +24984,13 @@
         <v>81.41</v>
       </c>
       <c r="F145">
-        <v>7.43</v>
+        <v>3.838563626</v>
       </c>
       <c r="G145">
-        <v>7.5</v>
+        <v>3.9686131499999999</v>
       </c>
       <c r="H145">
-        <v>7.56</v>
+        <v>4.0336379119999997</v>
       </c>
       <c r="I145">
         <v>29</v>
@@ -24958,7 +25008,7 @@
         <v>3.17</v>
       </c>
       <c r="N145">
-        <v>34.24657534</v>
+        <v>125.28168580000001</v>
       </c>
       <c r="O145">
         <v>5698.7</v>
@@ -25078,13 +25128,13 @@
         <v>81.44</v>
       </c>
       <c r="F146">
-        <v>7.43</v>
+        <v>3.838563626</v>
       </c>
       <c r="G146">
-        <v>7.5</v>
+        <v>3.9686131499999999</v>
       </c>
       <c r="H146">
-        <v>7.56</v>
+        <v>4.0336379119999997</v>
       </c>
       <c r="I146">
         <v>29</v>
@@ -25102,7 +25152,7 @@
         <v>3.17</v>
       </c>
       <c r="N146">
-        <v>34.24657534</v>
+        <v>125.32785269999999</v>
       </c>
       <c r="O146">
         <v>5700.8</v>
@@ -25222,13 +25272,13 @@
         <v>741.27</v>
       </c>
       <c r="F147">
-        <v>11.49</v>
+        <v>9.1483660980000003</v>
       </c>
       <c r="G147">
-        <v>12.19</v>
+        <v>10.558278230000001</v>
       </c>
       <c r="H147">
-        <v>12.9</v>
+        <v>11.263234300000001</v>
       </c>
       <c r="I147">
         <v>297</v>
@@ -25246,7 +25296,7 @@
         <v>2</v>
       </c>
       <c r="N147">
-        <v>153.86503070000001</v>
+        <v>1254.0807</v>
       </c>
       <c r="O147">
         <v>51888.9</v>
@@ -25375,13 +25425,13 @@
         <v>775</v>
       </c>
       <c r="F148">
-        <v>11.49</v>
+        <v>9.1483660980000003</v>
       </c>
       <c r="G148">
-        <v>12.19</v>
+        <v>10.558278230000001</v>
       </c>
       <c r="H148">
-        <v>12.9</v>
+        <v>11.263234300000001</v>
       </c>
       <c r="I148">
         <v>310</v>
@@ -25399,7 +25449,7 @@
         <v>2</v>
       </c>
       <c r="N148">
-        <v>160.85889570000001</v>
+        <v>1311.145119</v>
       </c>
       <c r="O148">
         <v>54250</v>
@@ -25528,13 +25578,13 @@
         <v>7.5</v>
       </c>
       <c r="F149">
-        <v>15.36</v>
+        <v>3.5176769160000001</v>
       </c>
       <c r="G149">
-        <v>15.42</v>
+        <v>3.64772644</v>
       </c>
       <c r="H149">
-        <v>15.49</v>
+        <v>3.7127512020000002</v>
       </c>
       <c r="I149">
         <v>3</v>
@@ -25552,7 +25602,7 @@
         <v>3.17</v>
       </c>
       <c r="N149">
-        <v>3.2876712330000002</v>
+        <v>11.541734959999999</v>
       </c>
       <c r="O149">
         <v>525</v>
@@ -25672,13 +25722,13 @@
         <v>35.5</v>
       </c>
       <c r="F150">
-        <v>19.329999999999998</v>
+        <v>17.541351070000001</v>
       </c>
       <c r="G150">
-        <v>19.39</v>
+        <v>17.671400590000001</v>
       </c>
       <c r="H150">
-        <v>19.46</v>
+        <v>17.736425359999998</v>
       </c>
       <c r="I150">
         <v>8</v>
@@ -25696,7 +25746,7 @@
         <v>3.17</v>
       </c>
       <c r="N150">
-        <v>15.06849315</v>
+        <v>54.63087883</v>
       </c>
       <c r="O150">
         <v>2485</v>
@@ -25825,13 +25875,13 @@
         <v>603.67999999999995</v>
       </c>
       <c r="F151">
-        <v>9.6199999999999992</v>
+        <v>5.916083822</v>
       </c>
       <c r="G151">
-        <v>9.8800000000000008</v>
+        <v>6.4379753019999999</v>
       </c>
       <c r="H151">
-        <v>10.14</v>
+        <v>6.6989210410000002</v>
       </c>
       <c r="I151">
         <v>242</v>
@@ -25849,7 +25899,7 @@
         <v>2</v>
       </c>
       <c r="N151">
-        <v>277.49077490000002</v>
+        <v>751.78400120000003</v>
       </c>
       <c r="O151">
         <v>42257.599999999999</v>
@@ -25978,13 +26028,13 @@
         <v>575</v>
       </c>
       <c r="F152">
-        <v>9.6999999999999993</v>
+        <v>5.5815844280000002</v>
       </c>
       <c r="G152">
-        <v>9.9600000000000009</v>
+        <v>6.103475907</v>
       </c>
       <c r="H152">
-        <v>10.220000000000001</v>
+        <v>6.3644216470000003</v>
       </c>
       <c r="I152">
         <v>230</v>
@@ -26002,7 +26052,7 @@
         <v>2</v>
       </c>
       <c r="N152">
-        <v>264.20664210000001</v>
+        <v>716.06778540000005</v>
       </c>
       <c r="O152">
         <v>40250</v>
@@ -26131,13 +26181,13 @@
         <v>106</v>
       </c>
       <c r="F153">
-        <v>7.87</v>
+        <v>7.9714205189999996</v>
       </c>
       <c r="G153">
-        <v>7.94</v>
+        <v>8.1014700430000008</v>
       </c>
       <c r="H153">
-        <v>8</v>
+        <v>8.1664948049999992</v>
       </c>
       <c r="I153">
         <v>17</v>
@@ -26155,7 +26205,7 @@
         <v>3.17</v>
       </c>
       <c r="N153">
-        <v>44.657534249999998</v>
+        <v>163.1231875</v>
       </c>
       <c r="O153">
         <v>7420</v>
@@ -26284,13 +26334,13 @@
         <v>106</v>
       </c>
       <c r="F154">
-        <v>7.87</v>
+        <v>7.9714205189999996</v>
       </c>
       <c r="G154">
-        <v>7.94</v>
+        <v>8.1014700430000008</v>
       </c>
       <c r="H154">
-        <v>8</v>
+        <v>8.1664948049999992</v>
       </c>
       <c r="I154">
         <v>34</v>
@@ -26308,7 +26358,7 @@
         <v>3.17</v>
       </c>
       <c r="N154">
-        <v>44.657534249999998</v>
+        <v>163.1231875</v>
       </c>
       <c r="O154">
         <v>7420</v>
@@ -26437,13 +26487,13 @@
         <v>106</v>
       </c>
       <c r="F155">
-        <v>7.87</v>
+        <v>7.9714205189999996</v>
       </c>
       <c r="G155">
-        <v>7.94</v>
+        <v>8.1014700430000008</v>
       </c>
       <c r="H155">
-        <v>8</v>
+        <v>8.1664948049999992</v>
       </c>
       <c r="I155">
         <v>17</v>
@@ -26461,7 +26511,7 @@
         <v>3.17</v>
       </c>
       <c r="N155">
-        <v>44.657534249999998</v>
+        <v>163.1231875</v>
       </c>
       <c r="O155">
         <v>7420</v>
@@ -26590,13 +26640,13 @@
         <v>312</v>
       </c>
       <c r="F156">
-        <v>12.15</v>
+        <v>11.61934422</v>
       </c>
       <c r="G156">
-        <v>12.85</v>
+        <v>13.02925636</v>
       </c>
       <c r="H156">
-        <v>13.56</v>
+        <v>13.734212429999999</v>
       </c>
       <c r="I156">
         <v>125</v>
@@ -26614,7 +26664,7 @@
         <v>2</v>
       </c>
       <c r="N156">
-        <v>64.523227379999994</v>
+        <v>527.8416479</v>
       </c>
       <c r="O156">
         <v>21840</v>
@@ -26728,13 +26778,13 @@
         <v>317</v>
       </c>
       <c r="F157">
-        <v>12.15</v>
+        <v>11.61934422</v>
       </c>
       <c r="G157">
-        <v>12.85</v>
+        <v>13.02925636</v>
       </c>
       <c r="H157">
-        <v>13.56</v>
+        <v>13.734212429999999</v>
       </c>
       <c r="I157">
         <v>127</v>
@@ -26752,7 +26802,7 @@
         <v>2</v>
       </c>
       <c r="N157">
-        <v>65.562347189999997</v>
+        <v>536.30064870000001</v>
       </c>
       <c r="O157">
         <v>22190</v>
@@ -26866,13 +26916,13 @@
         <v>530</v>
       </c>
       <c r="F158">
-        <v>12.15</v>
+        <v>11.61934422</v>
       </c>
       <c r="G158">
-        <v>12.85</v>
+        <v>13.02925636</v>
       </c>
       <c r="H158">
-        <v>13.56</v>
+        <v>13.734212429999999</v>
       </c>
       <c r="I158">
         <v>212</v>
@@ -26890,7 +26940,7 @@
         <v>2</v>
       </c>
       <c r="N158">
-        <v>109.608802</v>
+        <v>896.6540814</v>
       </c>
       <c r="O158">
         <v>37100</v>
@@ -27004,13 +27054,13 @@
         <v>6</v>
       </c>
       <c r="F159">
-        <v>8.66</v>
+        <v>4.3109495610000002</v>
       </c>
       <c r="G159">
-        <v>8.73</v>
+        <v>4.4409990859999997</v>
       </c>
       <c r="H159">
-        <v>8.7899999999999991</v>
+        <v>4.5060238479999999</v>
       </c>
       <c r="I159">
         <v>3</v>
@@ -27028,7 +27078,7 @@
         <v>3.17</v>
       </c>
       <c r="N159">
-        <v>2.4657534249999999</v>
+        <v>9.2333879710000009</v>
       </c>
       <c r="O159">
         <v>420</v>
@@ -27148,13 +27198,13 @@
         <v>401</v>
       </c>
       <c r="F160">
-        <v>7.64</v>
+        <v>7.3834220730000002</v>
       </c>
       <c r="G160">
-        <v>7.71</v>
+        <v>7.5134715979999998</v>
       </c>
       <c r="H160">
-        <v>7.77</v>
+        <v>7.5784963599999999</v>
       </c>
       <c r="I160">
         <v>141</v>
@@ -27172,7 +27222,7 @@
         <v>3.17</v>
       </c>
       <c r="N160">
-        <v>169.04109589999999</v>
+        <v>617.09809600000006</v>
       </c>
       <c r="O160">
         <v>28070</v>
@@ -27301,13 +27351,13 @@
         <v>119.91</v>
       </c>
       <c r="F161">
-        <v>7.6</v>
+        <v>9.3738460050000008</v>
       </c>
       <c r="G161">
-        <v>7.66</v>
+        <v>9.5038955299999994</v>
       </c>
       <c r="H161">
-        <v>7.73</v>
+        <v>9.5689202919999996</v>
       </c>
       <c r="I161">
         <v>42</v>
@@ -27325,7 +27375,7 @@
         <v>3.17</v>
       </c>
       <c r="N161">
-        <v>50.684931509999998</v>
+        <v>184.52925859999999</v>
       </c>
       <c r="O161">
         <v>8393.7000000000007</v>
@@ -27454,13 +27504,13 @@
         <v>52.01</v>
       </c>
       <c r="F162">
-        <v>7.64</v>
+        <v>4.1126302729999997</v>
       </c>
       <c r="G162">
-        <v>7.71</v>
+        <v>4.2426797980000002</v>
       </c>
       <c r="H162">
-        <v>7.77</v>
+        <v>4.3077045600000003</v>
       </c>
       <c r="I162">
         <v>19</v>
@@ -27478,7 +27528,7 @@
         <v>3.17</v>
       </c>
       <c r="N162">
-        <v>21.917808220000001</v>
+        <v>80.038084729999994</v>
       </c>
       <c r="O162">
         <v>3640.7</v>
@@ -27598,13 +27648,13 @@
         <v>22.3</v>
       </c>
       <c r="F163">
-        <v>8.6300000000000008</v>
+        <v>8.4517744219999997</v>
       </c>
       <c r="G163">
-        <v>8.69</v>
+        <v>8.5818239460000001</v>
       </c>
       <c r="H163">
-        <v>8.76</v>
+        <v>8.6468487080000003</v>
       </c>
       <c r="I163">
         <v>17</v>
@@ -27622,7 +27672,7 @@
         <v>3.17</v>
       </c>
       <c r="N163">
-        <v>9.3150684930000001</v>
+        <v>34.317425290000003</v>
       </c>
       <c r="O163">
         <v>1561</v>
@@ -27742,13 +27792,13 @@
         <v>44</v>
       </c>
       <c r="F164">
-        <v>9.48</v>
+        <v>8.3519258199999999</v>
       </c>
       <c r="G164">
-        <v>9.5399999999999991</v>
+        <v>8.4819753440000003</v>
       </c>
       <c r="H164">
-        <v>9.61</v>
+        <v>8.5470001070000006</v>
       </c>
       <c r="I164">
         <v>16</v>
@@ -27766,7 +27816,7 @@
         <v>3.17</v>
       </c>
       <c r="N164">
-        <v>18.63013699</v>
+        <v>67.711511779999995</v>
       </c>
       <c r="O164">
         <v>3080</v>
@@ -27886,13 +27936,13 @@
         <v>178.87</v>
       </c>
       <c r="F165">
-        <v>11.19</v>
+        <v>10.5850428</v>
       </c>
       <c r="G165">
-        <v>11.89</v>
+        <v>11.99495494</v>
       </c>
       <c r="H165">
-        <v>12.6</v>
+        <v>12.699911</v>
       </c>
       <c r="I165">
         <v>72</v>
@@ -27910,7 +27960,7 @@
         <v>2</v>
       </c>
       <c r="N165">
-        <v>37.177914110000003</v>
+        <v>302.61229350000002</v>
       </c>
       <c r="O165">
         <v>12520.9</v>
@@ -28039,13 +28089,13 @@
         <v>175</v>
       </c>
       <c r="F166">
-        <v>11.19</v>
+        <v>10.5850428</v>
       </c>
       <c r="G166">
-        <v>11.89</v>
+        <v>11.99495494</v>
       </c>
       <c r="H166">
-        <v>12.6</v>
+        <v>12.699911</v>
       </c>
       <c r="I166">
         <v>70</v>
@@ -28063,7 +28113,7 @@
         <v>2</v>
       </c>
       <c r="N166">
-        <v>36.319018399999997</v>
+        <v>296.06502690000002</v>
       </c>
       <c r="O166">
         <v>12250</v>
@@ -28192,13 +28242,13 @@
         <v>505.96</v>
       </c>
       <c r="F167">
-        <v>11.19</v>
+        <v>10.5850428</v>
       </c>
       <c r="G167">
-        <v>11.89</v>
+        <v>11.99495494</v>
       </c>
       <c r="H167">
-        <v>12.6</v>
+        <v>12.699911</v>
       </c>
       <c r="I167">
         <v>203</v>
@@ -28216,7 +28266,7 @@
         <v>2</v>
       </c>
       <c r="N167">
-        <v>105.0306748</v>
+        <v>855.98320569999998</v>
       </c>
       <c r="O167">
         <v>35417.199999999997</v>
@@ -28345,13 +28395,13 @@
         <v>495.9</v>
       </c>
       <c r="F168">
-        <v>11.19</v>
+        <v>10.5850428</v>
       </c>
       <c r="G168">
-        <v>11.89</v>
+        <v>11.99495494</v>
       </c>
       <c r="H168">
-        <v>12.6</v>
+        <v>12.699911</v>
       </c>
       <c r="I168">
         <v>199</v>
@@ -28369,7 +28419,7 @@
         <v>2</v>
       </c>
       <c r="N168">
-        <v>102.94478530000001</v>
+        <v>838.96369609999999</v>
       </c>
       <c r="O168">
         <v>34713</v>
@@ -28498,13 +28548,13 @@
         <v>620</v>
       </c>
       <c r="F169">
-        <v>10.06</v>
+        <v>5.6774190200000003</v>
       </c>
       <c r="G169">
-        <v>10.32</v>
+        <v>6.1993104990000001</v>
       </c>
       <c r="H169">
-        <v>10.58</v>
+        <v>6.4602562389999996</v>
       </c>
       <c r="I169">
         <v>248</v>
@@ -28522,7 +28572,7 @@
         <v>2</v>
       </c>
       <c r="N169">
-        <v>284.90774909999999</v>
+        <v>772.10787289999996</v>
       </c>
       <c r="O169">
         <v>43400</v>
@@ -28651,13 +28701,13 @@
         <v>48.7</v>
       </c>
       <c r="F170">
-        <v>9.3000000000000007</v>
+        <v>9.5705013040000004</v>
       </c>
       <c r="G170">
-        <v>9.3699999999999992</v>
+        <v>9.7005508280000008</v>
       </c>
       <c r="H170">
-        <v>9.43</v>
+        <v>9.7655755899999992</v>
       </c>
       <c r="I170">
         <v>18</v>
@@ -28675,7 +28725,7 @@
         <v>3.17</v>
       </c>
       <c r="N170">
-        <v>20.520547950000001</v>
+        <v>74.944332360000004</v>
       </c>
       <c r="O170">
         <v>3409</v>
@@ -28804,13 +28854,13 @@
         <v>49</v>
       </c>
       <c r="F171">
-        <v>8.49</v>
+        <v>8.9215058369999998</v>
       </c>
       <c r="G171">
-        <v>8.56</v>
+        <v>9.0515553610000001</v>
       </c>
       <c r="H171">
-        <v>8.6199999999999992</v>
+        <v>9.1165801230000003</v>
       </c>
       <c r="I171">
         <v>18</v>
@@ -28828,7 +28878,7 @@
         <v>3.17</v>
       </c>
       <c r="N171">
-        <v>20.547945210000002</v>
+        <v>75.406001759999995</v>
       </c>
       <c r="O171">
         <v>3430</v>
@@ -28957,13 +29007,13 @@
         <v>49</v>
       </c>
       <c r="F172">
-        <v>8.49</v>
+        <v>8.9215058369999998</v>
       </c>
       <c r="G172">
-        <v>8.56</v>
+        <v>9.0515553610000001</v>
       </c>
       <c r="H172">
-        <v>8.6199999999999992</v>
+        <v>9.1165801230000003</v>
       </c>
       <c r="I172">
         <v>18</v>
@@ -28981,7 +29031,7 @@
         <v>3.17</v>
       </c>
       <c r="N172">
-        <v>20.547945210000002</v>
+        <v>75.406001759999995</v>
       </c>
       <c r="O172">
         <v>3430</v>
@@ -29110,13 +29160,13 @@
         <v>48.35</v>
       </c>
       <c r="F173">
-        <v>8.49</v>
+        <v>8.9215058369999998</v>
       </c>
       <c r="G173">
-        <v>8.56</v>
+        <v>9.0515553610000001</v>
       </c>
       <c r="H173">
-        <v>8.6199999999999992</v>
+        <v>9.1165801230000003</v>
       </c>
       <c r="I173">
         <v>17</v>
@@ -29134,7 +29184,7 @@
         <v>3.17</v>
       </c>
       <c r="N173">
-        <v>20.2739726</v>
+        <v>74.405718059999998</v>
       </c>
       <c r="O173">
         <v>3384.5</v>
@@ -29263,13 +29313,13 @@
         <v>48.5</v>
       </c>
       <c r="F174">
-        <v>8.49</v>
+        <v>8.9215058369999998</v>
       </c>
       <c r="G174">
-        <v>8.56</v>
+        <v>9.0515553610000001</v>
       </c>
       <c r="H174">
-        <v>8.6199999999999992</v>
+        <v>9.1165801230000003</v>
       </c>
       <c r="I174">
         <v>17</v>
@@ -29287,7 +29337,7 @@
         <v>3.17</v>
       </c>
       <c r="N174">
-        <v>20.547945210000002</v>
+        <v>74.636552760000001</v>
       </c>
       <c r="O174">
         <v>3395</v>
@@ -29416,13 +29466,13 @@
         <v>36</v>
       </c>
       <c r="F175">
-        <v>12.28</v>
+        <v>12.064947310000001</v>
       </c>
       <c r="G175">
-        <v>12.35</v>
+        <v>12.19499684</v>
       </c>
       <c r="H175">
-        <v>12.41</v>
+        <v>12.2600216</v>
       </c>
       <c r="I175">
         <v>13</v>
@@ -29440,7 +29490,7 @@
         <v>3.17</v>
       </c>
       <c r="N175">
-        <v>15.06849315</v>
+        <v>55.400327820000001</v>
       </c>
       <c r="O175">
         <v>2520</v>
@@ -29560,13 +29610,13 @@
         <v>57</v>
       </c>
       <c r="F176">
-        <v>8.02</v>
+        <v>4.5575531930000004</v>
       </c>
       <c r="G176">
-        <v>8.08</v>
+        <v>4.6876027169999999</v>
       </c>
       <c r="H176">
-        <v>8.15</v>
+        <v>4.752627479</v>
       </c>
       <c r="I176">
         <v>20</v>
@@ -29584,7 +29634,7 @@
         <v>3.17</v>
       </c>
       <c r="N176">
-        <v>24.109589039999999</v>
+        <v>87.717185720000003</v>
       </c>
       <c r="O176">
         <v>3990</v>
@@ -29713,13 +29763,13 @@
         <v>25</v>
       </c>
       <c r="F177">
-        <v>8.02</v>
+        <v>3.6590457750000001</v>
       </c>
       <c r="G177">
-        <v>8.08</v>
+        <v>3.789095299</v>
       </c>
       <c r="H177">
-        <v>8.15</v>
+        <v>3.8541200610000002</v>
       </c>
       <c r="I177">
         <v>202</v>
@@ -29737,7 +29787,7 @@
         <v>3.17</v>
       </c>
       <c r="N177">
-        <v>10.410958900000001</v>
+        <v>38.472449879999999</v>
       </c>
       <c r="O177">
         <v>1750</v>
@@ -29857,13 +29907,13 @@
         <v>57.1</v>
       </c>
       <c r="F178">
-        <v>8.02</v>
+        <v>6.9599725130000003</v>
       </c>
       <c r="G178">
-        <v>8.08</v>
+        <v>7.0900220369999998</v>
       </c>
       <c r="H178">
-        <v>8.15</v>
+        <v>7.155046799</v>
       </c>
       <c r="I178">
         <v>20</v>
@@ -29881,7 +29931,7 @@
         <v>3.17</v>
       </c>
       <c r="N178">
-        <v>24.109589039999999</v>
+        <v>87.871075520000005</v>
       </c>
       <c r="O178">
         <v>3997</v>
@@ -30001,13 +30051,13 @@
         <v>29.8</v>
       </c>
       <c r="F179">
-        <v>8.1199999999999992</v>
+        <v>8.0189043800000004</v>
       </c>
       <c r="G179">
-        <v>8.3800000000000008</v>
+        <v>8.5407958589999993</v>
       </c>
       <c r="H179">
-        <v>8.64</v>
+        <v>8.8017415989999996</v>
       </c>
       <c r="I179">
         <v>12</v>
@@ -30025,7 +30075,7 @@
         <v>2</v>
       </c>
       <c r="N179">
-        <v>13.653136529999999</v>
+        <v>37.110991310000003</v>
       </c>
       <c r="O179">
         <v>2086</v>
@@ -30145,13 +30195,13 @@
         <v>525</v>
       </c>
       <c r="F180">
-        <v>5.83</v>
+        <v>5.6224140599999997</v>
       </c>
       <c r="G180">
-        <v>6.09</v>
+        <v>6.1443055390000003</v>
       </c>
       <c r="H180">
-        <v>6.35</v>
+        <v>6.4052512789999998</v>
       </c>
       <c r="I180">
         <v>210</v>
@@ -30169,7 +30219,7 @@
         <v>2</v>
       </c>
       <c r="N180">
-        <v>241.32841329999999</v>
+        <v>653.80102139999997</v>
       </c>
       <c r="O180">
         <v>36750</v>
@@ -30298,13 +30348,13 @@
         <v>525</v>
       </c>
       <c r="F181">
-        <v>5.83</v>
+        <v>5.6224140599999997</v>
       </c>
       <c r="G181">
-        <v>6.09</v>
+        <v>6.1443055390000003</v>
       </c>
       <c r="H181">
-        <v>6.35</v>
+        <v>6.4052512789999998</v>
       </c>
       <c r="I181">
         <v>210</v>
@@ -30322,7 +30372,7 @@
         <v>2</v>
       </c>
       <c r="N181">
-        <v>241.32841329999999</v>
+        <v>653.80102139999997</v>
       </c>
       <c r="O181">
         <v>36750</v>
@@ -30451,13 +30501,13 @@
         <v>332.28</v>
       </c>
       <c r="F182">
-        <v>6.33</v>
+        <v>6.6452924019999999</v>
       </c>
       <c r="G182">
-        <v>6.59</v>
+        <v>7.1671838819999998</v>
       </c>
       <c r="H182">
-        <v>6.85</v>
+        <v>7.4281296220000002</v>
       </c>
       <c r="I182">
         <v>133</v>
@@ -30475,7 +30525,7 @@
         <v>2</v>
       </c>
       <c r="N182">
-        <v>152.76752769999999</v>
+        <v>413.80000649999999</v>
       </c>
       <c r="O182">
         <v>23259.599999999999</v>
@@ -30604,13 +30654,13 @@
         <v>92.09</v>
       </c>
       <c r="F183">
-        <v>7.63</v>
+        <v>8.2765426099999999</v>
       </c>
       <c r="G183">
-        <v>7.7</v>
+        <v>8.4065921340000003</v>
       </c>
       <c r="H183">
-        <v>7.76</v>
+        <v>8.4716168960000005</v>
       </c>
       <c r="I183">
         <v>33</v>
@@ -30628,7 +30678,7 @@
         <v>3.17</v>
       </c>
       <c r="N183">
-        <v>38.904109589999997</v>
+        <v>141.71711640000001</v>
       </c>
       <c r="O183">
         <v>6446.3</v>
@@ -30757,13 +30807,13 @@
         <v>92.4</v>
       </c>
       <c r="F184">
-        <v>7.63</v>
+        <v>8.2765426099999999</v>
       </c>
       <c r="G184">
-        <v>7.7</v>
+        <v>8.4065921340000003</v>
       </c>
       <c r="H184">
-        <v>7.76</v>
+        <v>8.4716168960000005</v>
       </c>
       <c r="I184">
         <v>33</v>
@@ -30781,7 +30831,7 @@
         <v>3.17</v>
       </c>
       <c r="N184">
-        <v>38.904109589999997</v>
+        <v>142.19417469999999</v>
       </c>
       <c r="O184">
         <v>6468</v>
@@ -30910,13 +30960,13 @@
         <v>92.36</v>
       </c>
       <c r="F185">
-        <v>7.63</v>
+        <v>8.2765426099999999</v>
       </c>
       <c r="G185">
-        <v>7.7</v>
+        <v>8.4065921340000003</v>
       </c>
       <c r="H185">
-        <v>7.76</v>
+        <v>8.4716168960000005</v>
       </c>
       <c r="I185">
         <v>33</v>
@@ -30934,7 +30984,7 @@
         <v>3.17</v>
       </c>
       <c r="N185">
-        <v>38.904109589999997</v>
+        <v>142.13261879999999</v>
       </c>
       <c r="O185">
         <v>6465.2</v>
@@ -31063,13 +31113,13 @@
         <v>91.98</v>
       </c>
       <c r="F186">
-        <v>7.63</v>
+        <v>8.2765426099999999</v>
       </c>
       <c r="G186">
-        <v>7.7</v>
+        <v>8.4065921340000003</v>
       </c>
       <c r="H186">
-        <v>7.76</v>
+        <v>8.4716168960000005</v>
       </c>
       <c r="I186">
         <v>33</v>
@@ -31087,7 +31137,7 @@
         <v>3.17</v>
       </c>
       <c r="N186">
-        <v>38.904109589999997</v>
+        <v>141.54783760000001</v>
       </c>
       <c r="O186">
         <v>6438.6</v>
@@ -31216,13 +31266,13 @@
         <v>91.83</v>
       </c>
       <c r="F187">
-        <v>7.63</v>
+        <v>8.2765426099999999</v>
       </c>
       <c r="G187">
-        <v>7.7</v>
+        <v>8.4065921340000003</v>
       </c>
       <c r="H187">
-        <v>7.76</v>
+        <v>8.4716168960000005</v>
       </c>
       <c r="I187">
         <v>33</v>
@@ -31240,7 +31290,7 @@
         <v>3.17</v>
       </c>
       <c r="N187">
-        <v>38.630136989999997</v>
+        <v>141.31700290000001</v>
       </c>
       <c r="O187">
         <v>6428.1</v>
@@ -31369,13 +31419,13 @@
         <v>92.16</v>
       </c>
       <c r="F188">
-        <v>7.63</v>
+        <v>8.2765426099999999</v>
       </c>
       <c r="G188">
-        <v>7.7</v>
+        <v>8.4065921340000003</v>
       </c>
       <c r="H188">
-        <v>7.76</v>
+        <v>8.4716168960000005</v>
       </c>
       <c r="I188">
         <v>33</v>
@@ -31393,7 +31443,7 @@
         <v>3.17</v>
       </c>
       <c r="N188">
-        <v>38.904109589999997</v>
+        <v>141.82483920000001</v>
       </c>
       <c r="O188">
         <v>6451.2</v>
@@ -31522,13 +31572,13 @@
         <v>91.84</v>
       </c>
       <c r="F189">
-        <v>7.63</v>
+        <v>8.2765426099999999</v>
       </c>
       <c r="G189">
-        <v>7.7</v>
+        <v>8.4065921340000003</v>
       </c>
       <c r="H189">
-        <v>7.76</v>
+        <v>8.4716168960000005</v>
       </c>
       <c r="I189">
         <v>33</v>
@@ -31546,7 +31596,7 @@
         <v>3.17</v>
       </c>
       <c r="N189">
-        <v>38.630136989999997</v>
+        <v>141.3323919</v>
       </c>
       <c r="O189">
         <v>6428.8</v>
@@ -31675,13 +31725,13 @@
         <v>91.56</v>
       </c>
       <c r="F190">
-        <v>7.63</v>
+        <v>8.2765426099999999</v>
       </c>
       <c r="G190">
-        <v>7.7</v>
+        <v>8.4065921340000003</v>
       </c>
       <c r="H190">
-        <v>7.76</v>
+        <v>8.4716168960000005</v>
       </c>
       <c r="I190">
         <v>33</v>
@@ -31699,7 +31749,7 @@
         <v>3.17</v>
       </c>
       <c r="N190">
-        <v>38.630136989999997</v>
+        <v>140.9015004</v>
       </c>
       <c r="O190">
         <v>6409.2</v>
@@ -31828,13 +31878,13 @@
         <v>48.3</v>
       </c>
       <c r="F191">
-        <v>8.02</v>
+        <v>5.1956732280000004</v>
       </c>
       <c r="G191">
-        <v>8.08</v>
+        <v>5.3257227519999999</v>
       </c>
       <c r="H191">
-        <v>8.15</v>
+        <v>5.3907475140000001</v>
       </c>
       <c r="I191">
         <v>17</v>
@@ -31852,7 +31902,7 @@
         <v>3.17</v>
       </c>
       <c r="N191">
-        <v>20.2739726</v>
+        <v>74.328773159999997</v>
       </c>
       <c r="O191">
         <v>3381</v>
@@ -31981,13 +32031,13 @@
         <v>100</v>
       </c>
       <c r="F192">
-        <v>8.8699999999999992</v>
+        <v>4.4839317479999998</v>
       </c>
       <c r="G192">
-        <v>9.1300000000000008</v>
+        <v>5.0058232279999997</v>
       </c>
       <c r="H192">
-        <v>9.39</v>
+        <v>5.266768967</v>
       </c>
       <c r="I192">
         <v>40</v>
@@ -32005,7 +32055,7 @@
         <v>2</v>
       </c>
       <c r="N192">
-        <v>45.940959409999998</v>
+        <v>124.5335279</v>
       </c>
       <c r="O192">
         <v>7000</v>
@@ -32125,13 +32175,13 @@
         <v>52.43</v>
       </c>
       <c r="F193">
-        <v>8.85</v>
+        <v>7.2018410939999997</v>
       </c>
       <c r="G193">
-        <v>8.91</v>
+        <v>7.3318906180000001</v>
       </c>
       <c r="H193">
-        <v>8.98</v>
+        <v>7.3969153800000003</v>
       </c>
       <c r="I193">
         <v>19</v>
@@ -32149,7 +32199,7 @@
         <v>3.17</v>
       </c>
       <c r="N193">
-        <v>22.191780820000002</v>
+        <v>80.684421880000002</v>
       </c>
       <c r="O193">
         <v>3670.1</v>
@@ -32269,13 +32319,13 @@
         <v>46.05</v>
       </c>
       <c r="F194">
-        <v>9.3699999999999992</v>
+        <v>9.4787317279999996</v>
       </c>
       <c r="G194">
-        <v>9.43</v>
+        <v>9.6087812530000001</v>
       </c>
       <c r="H194">
-        <v>9.5</v>
+        <v>9.6738060150000003</v>
       </c>
       <c r="I194">
         <v>17</v>
@@ -32293,7 +32343,7 @@
         <v>3.17</v>
       </c>
       <c r="N194">
-        <v>19.452054789999998</v>
+        <v>70.866252669999994</v>
       </c>
       <c r="O194">
         <v>3223.5</v>
@@ -32422,13 +32472,13 @@
         <v>13</v>
       </c>
       <c r="F195">
-        <v>8.66</v>
+        <v>7.2734826369999999</v>
       </c>
       <c r="G195">
-        <v>8.73</v>
+        <v>7.4035321610000002</v>
       </c>
       <c r="H195">
-        <v>8.7899999999999991</v>
+        <v>7.4685569230000004</v>
       </c>
       <c r="I195">
         <v>5</v>
@@ -32446,7 +32496,7 @@
         <v>3.17</v>
       </c>
       <c r="N195">
-        <v>5.4794520550000003</v>
+        <v>20.005673940000001</v>
       </c>
       <c r="O195">
         <v>910</v>
@@ -32566,13 +32616,13 @@
         <v>48.9</v>
       </c>
       <c r="F196">
-        <v>7.23</v>
+        <v>5.5880695759999996</v>
       </c>
       <c r="G196">
-        <v>7.29</v>
+        <v>5.7181191</v>
       </c>
       <c r="H196">
-        <v>7.36</v>
+        <v>5.7831438620000002</v>
       </c>
       <c r="I196">
         <v>18</v>
@@ -32590,7 +32640,7 @@
         <v>3.17</v>
       </c>
       <c r="N196">
-        <v>20.547945210000002</v>
+        <v>75.252111959999993</v>
       </c>
       <c r="O196">
         <v>3423</v>
@@ -32710,13 +32760,13 @@
         <v>6.9</v>
       </c>
       <c r="F197">
-        <v>7.4</v>
+        <v>3.9849741330000001</v>
       </c>
       <c r="G197">
-        <v>7.46</v>
+        <v>4.1150236570000001</v>
       </c>
       <c r="H197">
-        <v>7.53</v>
+        <v>4.1800484200000003</v>
       </c>
       <c r="I197">
         <v>3</v>
@@ -32734,7 +32784,7 @@
         <v>3.17</v>
       </c>
       <c r="N197">
-        <v>2.9041095889999999</v>
+        <v>10.61839617</v>
       </c>
       <c r="O197">
         <v>483</v>
@@ -32854,13 +32904,13 @@
         <v>49.9</v>
       </c>
       <c r="F198">
-        <v>9.4700000000000006</v>
+        <v>5.1206304490000001</v>
       </c>
       <c r="G198">
-        <v>9.5299999999999994</v>
+        <v>5.2506799729999996</v>
       </c>
       <c r="H198">
-        <v>9.6</v>
+        <v>5.3157047349999997</v>
       </c>
       <c r="I198">
         <v>18</v>
@@ -32878,7 +32928,7 @@
         <v>3.17</v>
       </c>
       <c r="N198">
-        <v>21.095890409999999</v>
+        <v>76.791009959999997</v>
       </c>
       <c r="O198">
         <v>3493</v>
@@ -33007,13 +33057,13 @@
         <v>586.02</v>
       </c>
       <c r="F199">
-        <v>9.84</v>
+        <v>5.3491698630000002</v>
       </c>
       <c r="G199">
-        <v>10.1</v>
+        <v>5.871061343</v>
       </c>
       <c r="H199">
-        <v>10.36</v>
+        <v>6.1320070820000003</v>
       </c>
       <c r="I199">
         <v>235</v>
@@ -33031,7 +33081,7 @@
         <v>2</v>
       </c>
       <c r="N199">
-        <v>269.37269370000001</v>
+        <v>729.79138020000005</v>
       </c>
       <c r="O199">
         <v>41021.4</v>
@@ -33160,13 +33210,13 @@
         <v>248</v>
       </c>
       <c r="F200">
-        <v>7.6</v>
+        <v>3.1465026840000001</v>
       </c>
       <c r="G200">
-        <v>7.66</v>
+        <v>3.276552208</v>
       </c>
       <c r="H200">
-        <v>7.73</v>
+        <v>3.3415769700000002</v>
       </c>
       <c r="I200">
         <v>87</v>
@@ -33184,7 +33234,7 @@
         <v>3.17</v>
       </c>
       <c r="N200">
-        <v>104.6575342</v>
+        <v>381.64670280000001</v>
       </c>
       <c r="O200">
         <v>17360</v>
@@ -33304,13 +33354,13 @@
         <v>85</v>
       </c>
       <c r="F201">
-        <v>7.33</v>
+        <v>4.0265343219999998</v>
       </c>
       <c r="G201">
-        <v>7.4</v>
+        <v>4.1565838460000002</v>
       </c>
       <c r="H201">
-        <v>7.46</v>
+        <v>4.2216086089999996</v>
       </c>
       <c r="I201">
         <v>30</v>
@@ -33328,7 +33378,7 @@
         <v>3.17</v>
       </c>
       <c r="N201">
-        <v>35.890410959999997</v>
+        <v>130.8063296</v>
       </c>
       <c r="O201">
         <v>5950</v>
@@ -33448,13 +33498,13 @@
         <v>85</v>
       </c>
       <c r="F202">
-        <v>7.33</v>
+        <v>4.0265343219999998</v>
       </c>
       <c r="G202">
-        <v>7.4</v>
+        <v>4.1565838460000002</v>
       </c>
       <c r="H202">
-        <v>7.46</v>
+        <v>4.2216086089999996</v>
       </c>
       <c r="I202">
         <v>30</v>
@@ -33472,7 +33522,7 @@
         <v>3.17</v>
       </c>
       <c r="N202">
-        <v>35.890410959999997</v>
+        <v>130.8063296</v>
       </c>
       <c r="O202">
         <v>5950</v>
@@ -33592,13 +33642,13 @@
         <v>85</v>
       </c>
       <c r="F203">
-        <v>7.33</v>
+        <v>4.0265343219999998</v>
       </c>
       <c r="G203">
-        <v>7.4</v>
+        <v>4.1565838460000002</v>
       </c>
       <c r="H203">
-        <v>7.46</v>
+        <v>4.2216086089999996</v>
       </c>
       <c r="I203">
         <v>30</v>
@@ -33616,7 +33666,7 @@
         <v>3.17</v>
       </c>
       <c r="N203">
-        <v>35.890410959999997</v>
+        <v>130.8063296</v>
       </c>
       <c r="O203">
         <v>5950</v>
@@ -33736,13 +33786,13 @@
         <v>85</v>
       </c>
       <c r="F204">
-        <v>7.33</v>
+        <v>4.0265343219999998</v>
       </c>
       <c r="G204">
-        <v>7.4</v>
+        <v>4.1565838460000002</v>
       </c>
       <c r="H204">
-        <v>7.46</v>
+        <v>4.2216086089999996</v>
       </c>
       <c r="I204">
         <v>30</v>
@@ -33760,7 +33810,7 @@
         <v>3.17</v>
       </c>
       <c r="N204">
-        <v>35.890410959999997</v>
+        <v>130.8063296</v>
       </c>
       <c r="O204">
         <v>5950</v>
@@ -33880,13 +33930,13 @@
         <v>17</v>
       </c>
       <c r="F205">
-        <v>7.49</v>
+        <v>4.5530317169999996</v>
       </c>
       <c r="G205">
-        <v>7.56</v>
+        <v>4.683081241</v>
       </c>
       <c r="H205">
-        <v>7.62</v>
+        <v>4.7481060030000002</v>
       </c>
       <c r="I205">
         <v>6</v>
@@ -33904,7 +33954,7 @@
         <v>3.17</v>
       </c>
       <c r="N205">
-        <v>7.1232876709999999</v>
+        <v>26.161265920000002</v>
       </c>
       <c r="O205">
         <v>1190</v>
@@ -34024,13 +34074,13 @@
         <v>40.200000000000003</v>
       </c>
       <c r="F206">
-        <v>7.26</v>
+        <v>3.6281864009999998</v>
       </c>
       <c r="G206">
-        <v>7.32</v>
+        <v>3.7582359250000001</v>
       </c>
       <c r="H206">
-        <v>7.39</v>
+        <v>3.8232606869999999</v>
       </c>
       <c r="I206">
         <v>15</v>
@@ -34048,7 +34098,7 @@
         <v>3.17</v>
       </c>
       <c r="N206">
-        <v>16.98630137</v>
+        <v>61.863699400000002</v>
       </c>
       <c r="O206">
         <v>2814</v>
@@ -34168,13 +34218,13 @@
         <v>114.8</v>
       </c>
       <c r="F207">
-        <v>6.63</v>
+        <v>4.2786424839999997</v>
       </c>
       <c r="G207">
-        <v>6.89</v>
+        <v>4.8005339640000004</v>
       </c>
       <c r="H207">
-        <v>7.15</v>
+        <v>5.0614797039999999</v>
       </c>
       <c r="I207">
         <v>46</v>
@@ -34192,7 +34242,7 @@
         <v>2</v>
       </c>
       <c r="N207">
-        <v>52.730627310000003</v>
+        <v>142.96449000000001</v>
       </c>
       <c r="O207">
         <v>8036</v>
@@ -34312,13 +34362,13 @@
         <v>11.2</v>
       </c>
       <c r="F208">
-        <v>6.41</v>
+        <v>9.5346050689999995</v>
       </c>
       <c r="G208">
-        <v>6.48</v>
+        <v>9.6646545939999999</v>
       </c>
       <c r="H208">
-        <v>6.54</v>
+        <v>9.7296793560000001</v>
       </c>
       <c r="I208">
         <v>4</v>
@@ -34336,7 +34386,7 @@
         <v>3.17</v>
       </c>
       <c r="N208">
-        <v>4.6575342470000001</v>
+        <v>17.235657549999999</v>
       </c>
       <c r="O208">
         <v>784</v>
@@ -34456,13 +34506,13 @@
         <v>57.3</v>
       </c>
       <c r="F209">
-        <v>6.37</v>
+        <v>3.3743367759999998</v>
       </c>
       <c r="G209">
-        <v>6.43</v>
+        <v>3.5043863000000002</v>
       </c>
       <c r="H209">
-        <v>6.5</v>
+        <v>3.5694110619999999</v>
       </c>
       <c r="I209">
         <v>21</v>
@@ -34480,7 +34530,7 @@
         <v>3.17</v>
       </c>
       <c r="N209">
-        <v>24.1369863</v>
+        <v>88.178855119999994</v>
       </c>
       <c r="O209">
         <v>4011</v>
@@ -34600,13 +34650,13 @@
         <v>38</v>
       </c>
       <c r="F210">
-        <v>7.26</v>
+        <v>3.4553088769999998</v>
       </c>
       <c r="G210">
-        <v>7.32</v>
+        <v>3.5853584019999998</v>
       </c>
       <c r="H210">
-        <v>7.39</v>
+        <v>3.650383164</v>
       </c>
       <c r="I210">
         <v>14</v>
@@ -34624,7 +34674,7 @@
         <v>3.17</v>
       </c>
       <c r="N210">
-        <v>15.890410960000001</v>
+        <v>58.47812381</v>
       </c>
       <c r="O210">
         <v>2660</v>
@@ -34744,13 +34794,13 @@
         <v>50.61</v>
       </c>
       <c r="F211">
-        <v>11.9</v>
+        <v>8.8836109899999993</v>
       </c>
       <c r="G211">
-        <v>11.97</v>
+        <v>9.0136605139999997</v>
       </c>
       <c r="H211">
-        <v>12.03</v>
+        <v>9.0786852759999999</v>
       </c>
       <c r="I211">
         <v>18</v>
@@ -34768,7 +34818,7 @@
         <v>3.17</v>
       </c>
       <c r="N211">
-        <v>21.36986301</v>
+        <v>77.883627529999998</v>
       </c>
       <c r="O211">
         <v>3542.7</v>
@@ -34888,13 +34938,13 @@
         <v>5.75</v>
       </c>
       <c r="F212">
-        <v>12.7</v>
+        <v>11.82003106</v>
       </c>
       <c r="G212">
-        <v>12.77</v>
+        <v>11.950080590000001</v>
       </c>
       <c r="H212">
-        <v>12.83</v>
+        <v>12.015105350000001</v>
       </c>
       <c r="I212">
         <v>3</v>
@@ -34912,7 +34962,7 @@
         <v>3.17</v>
       </c>
       <c r="N212">
-        <v>2.4657534249999999</v>
+        <v>8.8486634720000001</v>
       </c>
       <c r="O212">
         <v>402.5</v>
@@ -35032,13 +35082,13 @@
         <v>5.75</v>
       </c>
       <c r="F213">
-        <v>12.7</v>
+        <v>11.82003106</v>
       </c>
       <c r="G213">
-        <v>12.77</v>
+        <v>11.950080590000001</v>
       </c>
       <c r="H213">
-        <v>12.83</v>
+        <v>12.015105350000001</v>
       </c>
       <c r="I213">
         <v>3</v>
@@ -35056,7 +35106,7 @@
         <v>3.17</v>
       </c>
       <c r="N213">
-        <v>2.4657534249999999</v>
+        <v>8.8486634720000001</v>
       </c>
       <c r="O213">
         <v>402.5</v>
@@ -35176,13 +35226,13 @@
         <v>134</v>
       </c>
       <c r="F214">
-        <v>7.86</v>
+        <v>6.6416467969999999</v>
       </c>
       <c r="G214">
-        <v>8.1199999999999992</v>
+        <v>7.1635382769999998</v>
       </c>
       <c r="H214">
-        <v>8.3800000000000008</v>
+        <v>7.4244840160000001</v>
       </c>
       <c r="I214">
         <v>54</v>
@@ -35200,7 +35250,7 @@
         <v>2</v>
       </c>
       <c r="N214">
-        <v>61.623616239999997</v>
+        <v>166.87492739999999</v>
       </c>
       <c r="O214">
         <v>9380</v>
@@ -35329,13 +35379,13 @@
         <v>49</v>
       </c>
       <c r="F215">
-        <v>7.63</v>
+        <v>10.199522480000001</v>
       </c>
       <c r="G215">
-        <v>7.7</v>
+        <v>10.32957201</v>
       </c>
       <c r="H215">
-        <v>7.76</v>
+        <v>10.39459677</v>
       </c>
       <c r="I215">
         <v>18</v>
@@ -35353,7 +35403,7 @@
         <v>3.17</v>
       </c>
       <c r="N215">
-        <v>20.547945210000002</v>
+        <v>75.406001759999995</v>
       </c>
       <c r="O215">
         <v>3430</v>
@@ -35482,13 +35532,13 @@
         <v>96.43</v>
       </c>
       <c r="F216">
-        <v>7.37</v>
+        <v>7.8756754579999999</v>
       </c>
       <c r="G216">
-        <v>7.44</v>
+        <v>8.0057249820000003</v>
       </c>
       <c r="H216">
-        <v>7.5</v>
+        <v>8.0707497440000004</v>
       </c>
       <c r="I216">
         <v>34</v>
@@ -35506,7 +35556,7 @@
         <v>3.17</v>
       </c>
       <c r="N216">
-        <v>40.547945210000002</v>
+        <v>148.3959337</v>
       </c>
       <c r="O216">
         <v>6750.1</v>
@@ -35635,13 +35685,13 @@
         <v>96.91</v>
       </c>
       <c r="F217">
-        <v>7.37</v>
+        <v>7.8756754579999999</v>
       </c>
       <c r="G217">
-        <v>7.44</v>
+        <v>8.0057249820000003</v>
       </c>
       <c r="H217">
-        <v>7.5</v>
+        <v>8.0707497440000004</v>
       </c>
       <c r="I217">
         <v>34</v>
@@ -35659,7 +35709,7 @@
         <v>3.17</v>
       </c>
       <c r="N217">
-        <v>40.821917810000002</v>
+        <v>149.13460470000001</v>
       </c>
       <c r="O217">
         <v>6783.7</v>
@@ -35788,13 +35838,13 @@
         <v>96.65</v>
       </c>
       <c r="F218">
-        <v>7.37</v>
+        <v>7.8756754579999999</v>
       </c>
       <c r="G218">
-        <v>7.44</v>
+        <v>8.0057249820000003</v>
       </c>
       <c r="H218">
-        <v>7.5</v>
+        <v>8.0707497440000004</v>
       </c>
       <c r="I218">
         <v>34</v>
@@ -35812,7 +35862,7 @@
         <v>3.17</v>
       </c>
       <c r="N218">
-        <v>40.821917810000002</v>
+        <v>148.73449120000001</v>
       </c>
       <c r="O218">
         <v>6765.5</v>
@@ -35941,13 +35991,13 @@
         <v>96.49</v>
       </c>
       <c r="F219">
-        <v>7.37</v>
+        <v>7.8756754579999999</v>
       </c>
       <c r="G219">
-        <v>7.44</v>
+        <v>8.0057249820000003</v>
       </c>
       <c r="H219">
-        <v>7.5</v>
+        <v>8.0707497440000004</v>
       </c>
       <c r="I219">
         <v>34</v>
@@ -35965,7 +36015,7 @@
         <v>3.17</v>
       </c>
       <c r="N219">
-        <v>40.547945210000002</v>
+        <v>148.48826750000001</v>
       </c>
       <c r="O219">
         <v>6754.3</v>
@@ -36094,13 +36144,13 @@
         <v>96.65</v>
       </c>
       <c r="F220">
-        <v>7.37</v>
+        <v>7.8756754579999999</v>
       </c>
       <c r="G220">
-        <v>7.44</v>
+        <v>8.0057249820000003</v>
       </c>
       <c r="H220">
-        <v>7.5</v>
+        <v>8.0707497440000004</v>
       </c>
       <c r="I220">
         <v>34</v>
@@ -36118,7 +36168,7 @@
         <v>3.17</v>
       </c>
       <c r="N220">
-        <v>40.821917810000002</v>
+        <v>148.73449120000001</v>
       </c>
       <c r="O220">
         <v>6765.5</v>
@@ -36247,13 +36297,13 @@
         <v>46.9</v>
       </c>
       <c r="F221">
-        <v>9.31</v>
+        <v>10.05242116</v>
       </c>
       <c r="G221">
-        <v>9.3800000000000008</v>
+        <v>10.182470690000001</v>
       </c>
       <c r="H221">
-        <v>9.44</v>
+        <v>10.247495450000001</v>
       </c>
       <c r="I221">
         <v>17</v>
@@ -36271,7 +36321,7 @@
         <v>3.17</v>
       </c>
       <c r="N221">
-        <v>19.7260274</v>
+        <v>72.174315969999995</v>
       </c>
       <c r="O221">
         <v>3283</v>
@@ -36400,13 +36450,13 @@
         <v>49.97</v>
       </c>
       <c r="F222">
-        <v>7.63</v>
+        <v>5.5798071509999998</v>
       </c>
       <c r="G222">
-        <v>7.69</v>
+        <v>5.7098566750000002</v>
       </c>
       <c r="H222">
-        <v>7.76</v>
+        <v>5.7748814370000003</v>
       </c>
       <c r="I222">
         <v>18</v>
@@ -36424,7 +36474,7 @@
         <v>3.17</v>
       </c>
       <c r="N222">
-        <v>21.095890409999999</v>
+        <v>76.898732820000006</v>
       </c>
       <c r="O222">
         <v>3497.9</v>
@@ -36544,13 +36594,13 @@
         <v>46</v>
       </c>
       <c r="F223">
-        <v>10.84</v>
+        <v>2.0240871729999999</v>
       </c>
       <c r="G223">
-        <v>10.91</v>
+        <v>2.1541366970000002</v>
       </c>
       <c r="H223">
-        <v>10.97</v>
+        <v>2.2191614589999999</v>
       </c>
       <c r="I223">
         <v>17</v>
@@ -36568,7 +36618,7 @@
         <v>3.17</v>
       </c>
       <c r="N223">
-        <v>19.452054789999998</v>
+        <v>70.789307769999994</v>
       </c>
       <c r="O223">
         <v>3220</v>
@@ -36678,6 +36728,230 @@
       </c>
       <c r="AS223">
         <v>-121.6397</v>
+      </c>
+    </row>
+    <row r="224" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F227">
+        <v>10000</v>
+      </c>
+      <c r="G227">
+        <v>10000</v>
+      </c>
+      <c r="H227">
+        <v>10000</v>
+      </c>
+      <c r="N227">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="228" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F228">
+        <v>10000</v>
+      </c>
+      <c r="G228">
+        <v>10000</v>
+      </c>
+      <c r="H228">
+        <v>10000</v>
+      </c>
+      <c r="N228">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="229" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F229">
+        <v>10000</v>
+      </c>
+      <c r="G229">
+        <v>10000</v>
+      </c>
+      <c r="H229">
+        <v>10000</v>
+      </c>
+      <c r="N229">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="230" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F230">
+        <v>10000</v>
+      </c>
+      <c r="G230">
+        <v>10000</v>
+      </c>
+      <c r="H230">
+        <v>10000</v>
+      </c>
+      <c r="N230">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="231" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="N239">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -36698,5 +36972,6 @@
     <mergeCell ref="AF2:AI2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>